--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.614990743908</v>
+        <v>605.3121418526002</v>
       </c>
       <c r="AB2" t="n">
-        <v>761.5851864561236</v>
+        <v>828.2147769697187</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.9005651522729</v>
+        <v>749.1711210624683</v>
       </c>
       <c r="AD2" t="n">
-        <v>556614.990743908</v>
+        <v>605312.1418526003</v>
       </c>
       <c r="AE2" t="n">
-        <v>761585.1864561236</v>
+        <v>828214.7769697187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841551646794487e-06</v>
+        <v>3.407352691363216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>688900.5651522728</v>
+        <v>749171.1210624683</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.0505315259441</v>
+        <v>320.4667411663865</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.6504686588252</v>
+        <v>438.4767332586616</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.5582134043848</v>
+        <v>396.6291292424145</v>
       </c>
       <c r="AD3" t="n">
-        <v>284050.5315259441</v>
+        <v>320466.7411663865</v>
       </c>
       <c r="AE3" t="n">
-        <v>388650.4686588252</v>
+        <v>438476.7332586616</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852238960551855e-06</v>
+        <v>5.27738883433659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.327148437499999</v>
       </c>
       <c r="AH3" t="n">
-        <v>351558.2134043848</v>
+        <v>396629.1292424145</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.2144569823845</v>
+        <v>268.7159179688502</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.7260646219662</v>
+        <v>367.6689738746052</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.4027349458724</v>
+        <v>332.5791630346578</v>
       </c>
       <c r="AD4" t="n">
-        <v>232214.4569823845</v>
+        <v>268715.9179688502</v>
       </c>
       <c r="AE4" t="n">
-        <v>317726.0646219662</v>
+        <v>367668.9738746051</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229344370276197e-06</v>
+        <v>5.975132573964254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.705403645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>287402.7349458724</v>
+        <v>332579.1630346578</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>216.0706409548692</v>
+        <v>240.3765908362047</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.6373833182334</v>
+        <v>328.8938562486894</v>
       </c>
       <c r="AC5" t="n">
-        <v>267.422166384102</v>
+        <v>297.5046882138386</v>
       </c>
       <c r="AD5" t="n">
-        <v>216070.6409548692</v>
+        <v>240376.5908362047</v>
       </c>
       <c r="AE5" t="n">
-        <v>295637.3833182334</v>
+        <v>328893.8562486893</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.42522630877624e-06</v>
+        <v>6.337565444907269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.436848958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>267422.166384102</v>
+        <v>297504.6882138386</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.4713413630279</v>
+        <v>230.7772912443633</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.5031981254731</v>
+        <v>315.7596710559291</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.5414893921899</v>
+        <v>285.6240112219265</v>
       </c>
       <c r="AD6" t="n">
-        <v>206471.3413630279</v>
+        <v>230777.2912443634</v>
       </c>
       <c r="AE6" t="n">
-        <v>282503.1981254732</v>
+        <v>315759.6710559291</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.549029669334418e-06</v>
+        <v>6.566634075446087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.2822265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>255541.4893921899</v>
+        <v>285624.0112219265</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.2255716544255</v>
+        <v>224.531521535761</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.9574604662551</v>
+        <v>307.213933396711</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.8113449411467</v>
+        <v>277.8938667708833</v>
       </c>
       <c r="AD7" t="n">
-        <v>200225.5716544255</v>
+        <v>224531.521535761</v>
       </c>
       <c r="AE7" t="n">
-        <v>273957.4604662551</v>
+        <v>307213.933396711</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.633059099577524e-06</v>
+        <v>6.722110521513156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.182942708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>247811.3449411467</v>
+        <v>277893.8667708833</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>194.9862685714738</v>
+        <v>219.2922184528092</v>
       </c>
       <c r="AB8" t="n">
-        <v>266.7888148464253</v>
+        <v>300.0452877768812</v>
       </c>
       <c r="AC8" t="n">
-        <v>241.3268647980139</v>
+        <v>271.4093866277505</v>
       </c>
       <c r="AD8" t="n">
-        <v>194986.2685714738</v>
+        <v>219292.2184528092</v>
       </c>
       <c r="AE8" t="n">
-        <v>266788.8148464253</v>
+        <v>300045.2877768812</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.702243330477682e-06</v>
+        <v>6.850119462108377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.104817708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>241326.8647980139</v>
+        <v>271409.3866277505</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>191.598362317323</v>
+        <v>215.9043121986585</v>
       </c>
       <c r="AB9" t="n">
-        <v>262.1533320456232</v>
+        <v>295.4098049760791</v>
       </c>
       <c r="AC9" t="n">
-        <v>237.1337859697778</v>
+        <v>267.2163077995145</v>
       </c>
       <c r="AD9" t="n">
-        <v>191598.362317323</v>
+        <v>215904.3121986585</v>
       </c>
       <c r="AE9" t="n">
-        <v>262153.3320456232</v>
+        <v>295409.8049760791</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.745658536103287e-06</v>
+        <v>6.93044895924303e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.0576171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>237133.7859697778</v>
+        <v>267216.3077995145</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>188.8814717893958</v>
+        <v>213.1874216707312</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.4359625645643</v>
+        <v>291.6924354950201</v>
       </c>
       <c r="AC10" t="n">
-        <v>233.7711970146292</v>
+        <v>263.8537188443659</v>
       </c>
       <c r="AD10" t="n">
-        <v>188881.4717893958</v>
+        <v>213187.4216707312</v>
       </c>
       <c r="AE10" t="n">
-        <v>258435.9625645643</v>
+        <v>291692.4354950201</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.780857530771789e-06</v>
+        <v>6.995576314984459e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.0185546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>233771.1970146292</v>
+        <v>263853.7188443659</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>174.5700996469356</v>
+        <v>210.9862197788264</v>
       </c>
       <c r="AB11" t="n">
-        <v>238.8545118260813</v>
+        <v>288.6806539563437</v>
       </c>
       <c r="AC11" t="n">
-        <v>216.0585724518821</v>
+        <v>261.1293775086778</v>
       </c>
       <c r="AD11" t="n">
-        <v>174570.0996469356</v>
+        <v>210986.2197788264</v>
       </c>
       <c r="AE11" t="n">
-        <v>238854.5118260813</v>
+        <v>288680.6539563438</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.803825575038238e-06</v>
+        <v>7.038073210242791e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.995768229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>216058.5724518821</v>
+        <v>261129.3775086778</v>
       </c>
     </row>
     <row r="12">
@@ -6762,28 +6762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>172.1149190609153</v>
+        <v>208.5310391928061</v>
       </c>
       <c r="AB12" t="n">
-        <v>235.495225433367</v>
+        <v>285.3213675636295</v>
       </c>
       <c r="AC12" t="n">
-        <v>213.0198916376993</v>
+        <v>258.090696694495</v>
       </c>
       <c r="AD12" t="n">
-        <v>172114.9190609153</v>
+        <v>208531.0391928061</v>
       </c>
       <c r="AE12" t="n">
-        <v>235495.225433367</v>
+        <v>285321.3675636295</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.828100743775136e-06</v>
+        <v>7.0829886279955e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.9697265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>213019.8916376993</v>
+        <v>258090.696694495</v>
       </c>
     </row>
     <row r="13">
@@ -6868,28 +6868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>169.9941131667876</v>
+        <v>194.3853143941436</v>
       </c>
       <c r="AB13" t="n">
-        <v>232.5934452456703</v>
+        <v>265.9665628287754</v>
       </c>
       <c r="AC13" t="n">
-        <v>210.3950532784413</v>
+        <v>240.5830873588903</v>
       </c>
       <c r="AD13" t="n">
-        <v>169994.1131667876</v>
+        <v>194385.3143941436</v>
       </c>
       <c r="AE13" t="n">
-        <v>232593.4452456703</v>
+        <v>265966.5628287754</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.851255520108792e-06</v>
+        <v>7.125831026467315e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.9453125</v>
       </c>
       <c r="AH13" t="n">
-        <v>210395.0532784413</v>
+        <v>240583.0873588902</v>
       </c>
     </row>
     <row r="14">
@@ -6974,28 +6974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>168.2501914981788</v>
+        <v>192.6413927255348</v>
       </c>
       <c r="AB14" t="n">
-        <v>230.2073346822867</v>
+        <v>263.5804522653919</v>
       </c>
       <c r="AC14" t="n">
-        <v>208.2366697582991</v>
+        <v>238.424703838748</v>
       </c>
       <c r="AD14" t="n">
-        <v>168250.1914981788</v>
+        <v>192641.3927255348</v>
       </c>
       <c r="AE14" t="n">
-        <v>230207.3346822867</v>
+        <v>263580.4522653919</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.863859934645257e-06</v>
+        <v>7.149152493377375e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>208236.6697582991</v>
+        <v>238424.703838748</v>
       </c>
     </row>
     <row r="15">
@@ -7080,28 +7080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>165.7729105308744</v>
+        <v>190.1641117582304</v>
       </c>
       <c r="AB15" t="n">
-        <v>226.8178095728996</v>
+        <v>260.1909271560047</v>
       </c>
       <c r="AC15" t="n">
-        <v>205.1706361681225</v>
+        <v>235.3586702485713</v>
       </c>
       <c r="AD15" t="n">
-        <v>165772.9105308744</v>
+        <v>190164.1117582304</v>
       </c>
       <c r="AE15" t="n">
-        <v>226817.8095728996</v>
+        <v>260190.9271560047</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.889535593886206e-06</v>
+        <v>7.196659185231202e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH15" t="n">
-        <v>205170.6361681225</v>
+        <v>235358.6702485713</v>
       </c>
     </row>
     <row r="16">
@@ -7186,28 +7186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>164.0597317976145</v>
+        <v>188.4509330249705</v>
       </c>
       <c r="AB16" t="n">
-        <v>224.473762849943</v>
+        <v>257.8468804330482</v>
       </c>
       <c r="AC16" t="n">
-        <v>203.0503019745139</v>
+        <v>233.2383360549628</v>
       </c>
       <c r="AD16" t="n">
-        <v>164059.7317976145</v>
+        <v>188450.9330249705</v>
       </c>
       <c r="AE16" t="n">
-        <v>224473.762849943</v>
+        <v>257846.8804330482</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.902140008422673e-06</v>
+        <v>7.219980652141264e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.894856770833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>203050.3019745139</v>
+        <v>233238.3360549628</v>
       </c>
     </row>
     <row r="17">
@@ -7292,28 +7292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>162.5140291888065</v>
+        <v>186.9052304161625</v>
       </c>
       <c r="AB17" t="n">
-        <v>222.3588643489866</v>
+        <v>255.7319819320917</v>
       </c>
       <c r="AC17" t="n">
-        <v>201.1372464182094</v>
+        <v>231.3252804986583</v>
       </c>
       <c r="AD17" t="n">
-        <v>162514.0291888065</v>
+        <v>186905.2304161625</v>
       </c>
       <c r="AE17" t="n">
-        <v>222358.8643489866</v>
+        <v>255731.9819320917</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.914464324858328e-06</v>
+        <v>7.2427838642311e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.8818359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>201137.2464182094</v>
+        <v>231325.2804986583</v>
       </c>
     </row>
     <row r="18">
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>161.8438184774362</v>
+        <v>186.2350197047922</v>
       </c>
       <c r="AB18" t="n">
-        <v>221.4418524860804</v>
+        <v>254.8149700691855</v>
       </c>
       <c r="AC18" t="n">
-        <v>200.3077528804644</v>
+        <v>230.4957869609133</v>
       </c>
       <c r="AD18" t="n">
-        <v>161843.8184774362</v>
+        <v>186235.0197047922</v>
       </c>
       <c r="AE18" t="n">
-        <v>221441.8524860804</v>
+        <v>254814.9700691855</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.911756709883829e-06</v>
+        <v>7.237774067635606e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.885091145833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>200307.7528804644</v>
+        <v>230495.7869609133</v>
       </c>
     </row>
     <row r="19">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>159.8951207311661</v>
+        <v>184.2863219585221</v>
       </c>
       <c r="AB19" t="n">
-        <v>218.775558259158</v>
+        <v>252.1486758422631</v>
       </c>
       <c r="AC19" t="n">
-        <v>197.8959260323912</v>
+        <v>228.0839601128401</v>
       </c>
       <c r="AD19" t="n">
-        <v>159895.1207311661</v>
+        <v>184286.3219585221</v>
       </c>
       <c r="AE19" t="n">
-        <v>218775.558259158</v>
+        <v>252148.6758422631</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.925948346991554e-06</v>
+        <v>7.264032311860267e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.870442708333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>197895.9260323912</v>
+        <v>228083.9601128401</v>
       </c>
     </row>
     <row r="20">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>158.6683490775449</v>
+        <v>183.0595503049009</v>
       </c>
       <c r="AB20" t="n">
-        <v>217.0970351613287</v>
+        <v>250.4701527444338</v>
       </c>
       <c r="AC20" t="n">
-        <v>196.3775988231962</v>
+        <v>226.5656329036451</v>
       </c>
       <c r="AD20" t="n">
-        <v>158668.3490775449</v>
+        <v>183059.5503049009</v>
       </c>
       <c r="AE20" t="n">
-        <v>217097.0351613287</v>
+        <v>250470.1527444338</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.937339003091175e-06</v>
+        <v>7.285108007882693e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.859049479166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>196377.5988231962</v>
+        <v>226565.6329036451</v>
       </c>
     </row>
     <row r="21">
@@ -7716,28 +7716,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>157.3629117986233</v>
+        <v>181.7541130259793</v>
       </c>
       <c r="AB21" t="n">
-        <v>215.3108782844808</v>
+        <v>248.6839958675859</v>
       </c>
       <c r="AC21" t="n">
-        <v>194.7619102517872</v>
+        <v>224.9499443322361</v>
       </c>
       <c r="AD21" t="n">
-        <v>157362.9117986232</v>
+        <v>181754.1130259793</v>
       </c>
       <c r="AE21" t="n">
-        <v>215310.8782844808</v>
+        <v>248683.9958675859</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.937058904990364e-06</v>
+        <v>7.284589753062469e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.859049479166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>194761.9102517872</v>
+        <v>224949.9443322361</v>
       </c>
     </row>
     <row r="22">
@@ -7822,28 +7822,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>157.6170663903697</v>
+        <v>182.0082676177258</v>
       </c>
       <c r="AB22" t="n">
-        <v>215.6586238094174</v>
+        <v>249.0317413925226</v>
       </c>
       <c r="AC22" t="n">
-        <v>195.0764674318879</v>
+        <v>225.2645015123368</v>
       </c>
       <c r="AD22" t="n">
-        <v>157617.0663903697</v>
+        <v>182008.2676177258</v>
       </c>
       <c r="AE22" t="n">
-        <v>215658.6238094174</v>
+        <v>249031.7413925226</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.934444656049468e-06</v>
+        <v>7.279752708073715e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.8623046875</v>
       </c>
       <c r="AH22" t="n">
-        <v>195076.4674318879</v>
+        <v>225264.5015123368</v>
       </c>
     </row>
     <row r="23">
@@ -7928,28 +7928,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>157.9429913042416</v>
+        <v>182.3341925315977</v>
       </c>
       <c r="AB23" t="n">
-        <v>216.1045686553691</v>
+        <v>249.4776862384743</v>
       </c>
       <c r="AC23" t="n">
-        <v>195.4798519276296</v>
+        <v>225.6678860080785</v>
       </c>
       <c r="AD23" t="n">
-        <v>157942.9913042416</v>
+        <v>182334.1925315977</v>
       </c>
       <c r="AE23" t="n">
-        <v>216104.5686553691</v>
+        <v>249477.6862384743</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.935751780519915e-06</v>
+        <v>7.282171230568091e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>195479.8519276296</v>
+        <v>225667.8860080785</v>
       </c>
     </row>
   </sheetData>
@@ -8225,28 +8225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1791299590838</v>
+        <v>437.1486376353811</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.8602990983662</v>
+        <v>598.1260516495099</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.9094214300531</v>
+        <v>541.0417407552659</v>
       </c>
       <c r="AD2" t="n">
-        <v>390179.1299590837</v>
+        <v>437148.6376353811</v>
       </c>
       <c r="AE2" t="n">
-        <v>533860.2990983662</v>
+        <v>598126.0516495099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.24678017052245e-06</v>
+        <v>4.282709755988693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9970703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>482909.4214300531</v>
+        <v>541041.7407552659</v>
       </c>
     </row>
     <row r="3">
@@ -8331,28 +8331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.7672438735074</v>
+        <v>261.9730394170903</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.2729473323225</v>
+        <v>358.4430699652802</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.6609327098341</v>
+        <v>324.2337664458015</v>
       </c>
       <c r="AD3" t="n">
-        <v>226767.2438735074</v>
+        <v>261973.0394170902</v>
       </c>
       <c r="AE3" t="n">
-        <v>310272.9473323225</v>
+        <v>358443.0699652802</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182793696123562e-06</v>
+        <v>6.066895992996965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.939778645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>280660.9327098341</v>
+        <v>324233.7664458015</v>
       </c>
     </row>
     <row r="4">
@@ -8437,28 +8437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.7529013134594</v>
+        <v>223.195074232873</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.3107320530019</v>
+        <v>305.3853472370068</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.2263393799651</v>
+        <v>276.2397983078239</v>
       </c>
       <c r="AD4" t="n">
-        <v>199752.9013134594</v>
+        <v>223195.074232873</v>
       </c>
       <c r="AE4" t="n">
-        <v>273310.7320530019</v>
+        <v>305385.3472370068</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.519781745945281e-06</v>
+        <v>6.709247224131198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>247226.3393799652</v>
+        <v>276239.7983078239</v>
       </c>
     </row>
     <row r="5">
@@ -8543,28 +8543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.4841514062005</v>
+        <v>210.926324325614</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.5240871708529</v>
+        <v>288.5987023548578</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.041788325159</v>
+        <v>261.0552472530178</v>
       </c>
       <c r="AD5" t="n">
-        <v>187484.1514062005</v>
+        <v>210926.3243256141</v>
       </c>
       <c r="AE5" t="n">
-        <v>256524.0871708528</v>
+        <v>288598.7023548578</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.700300709865256e-06</v>
+        <v>7.05334422928737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.248046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>232041.788325159</v>
+        <v>261055.2472530178</v>
       </c>
     </row>
     <row r="6">
@@ -8649,28 +8649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.5471591334878</v>
+        <v>203.9893320529013</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.0325883048321</v>
+        <v>279.107203488837</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.4561447895059</v>
+        <v>252.4696037173647</v>
       </c>
       <c r="AD6" t="n">
-        <v>180547.1591334878</v>
+        <v>203989.3320529013</v>
       </c>
       <c r="AE6" t="n">
-        <v>247032.5883048321</v>
+        <v>279107.203488837</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.802778302545348e-06</v>
+        <v>7.24868233654831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.134114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>223456.1447895059</v>
+        <v>252469.6037173647</v>
       </c>
     </row>
     <row r="7">
@@ -8755,28 +8755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.2209087758316</v>
+        <v>198.6630816952452</v>
       </c>
       <c r="AB7" t="n">
-        <v>239.7449775879088</v>
+        <v>271.8195927719136</v>
       </c>
       <c r="AC7" t="n">
-        <v>216.8640534111775</v>
+        <v>245.8775123390364</v>
       </c>
       <c r="AD7" t="n">
-        <v>175220.9087758316</v>
+        <v>198663.0816952452</v>
       </c>
       <c r="AE7" t="n">
-        <v>239744.9775879088</v>
+        <v>271819.5927719136</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.878887956675333e-06</v>
+        <v>7.393759083505541e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.052734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>216864.0534111775</v>
+        <v>245877.5123390364</v>
       </c>
     </row>
     <row r="8">
@@ -8861,28 +8861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.8019751246397</v>
+        <v>194.9224298136477</v>
       </c>
       <c r="AB8" t="n">
-        <v>218.6481123310145</v>
+        <v>266.7014678416004</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.7806433647582</v>
+        <v>241.2478540687372</v>
       </c>
       <c r="AD8" t="n">
-        <v>159801.9751246397</v>
+        <v>194922.4298136477</v>
       </c>
       <c r="AE8" t="n">
-        <v>218648.1123310145</v>
+        <v>266701.4678416005</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.930657975220601e-06</v>
+        <v>7.492440728643962e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.9990234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>197780.6433647582</v>
+        <v>241247.8540687372</v>
       </c>
     </row>
     <row r="9">
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.334881061297</v>
+        <v>179.8623053267311</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.9042812761565</v>
+        <v>246.0955411128106</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.4895568877656</v>
+        <v>222.6085280663366</v>
       </c>
       <c r="AD9" t="n">
-        <v>156334.881061297</v>
+        <v>179862.3053267311</v>
       </c>
       <c r="AE9" t="n">
-        <v>213904.2812761565</v>
+        <v>246095.5411128106</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976632842436176e-06</v>
+        <v>7.58007592096838e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.953450520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>193489.5568877656</v>
+        <v>222608.5280663366</v>
       </c>
     </row>
     <row r="10">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>154.0723837903757</v>
+        <v>177.5998080558098</v>
       </c>
       <c r="AB10" t="n">
-        <v>210.8086326957485</v>
+        <v>242.9998925324026</v>
       </c>
       <c r="AC10" t="n">
-        <v>190.6893526631006</v>
+        <v>219.8083238416718</v>
       </c>
       <c r="AD10" t="n">
-        <v>154072.3837903757</v>
+        <v>177599.8080558098</v>
       </c>
       <c r="AE10" t="n">
-        <v>210808.6326957485</v>
+        <v>242999.8925324026</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.998654417489013e-06</v>
+        <v>7.622052441661588e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.9306640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>190689.3526631006</v>
+        <v>219808.3238416718</v>
       </c>
     </row>
     <row r="11">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>151.1700904858001</v>
+        <v>174.6975147512343</v>
       </c>
       <c r="AB11" t="n">
-        <v>206.8375869562862</v>
+        <v>239.0288467929403</v>
       </c>
       <c r="AC11" t="n">
-        <v>187.0972979556137</v>
+        <v>216.2162691341848</v>
       </c>
       <c r="AD11" t="n">
-        <v>151170.0904858001</v>
+        <v>174697.5147512343</v>
       </c>
       <c r="AE11" t="n">
-        <v>206837.5869562862</v>
+        <v>239028.8467929403</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.032362881056735e-06</v>
+        <v>7.686305975529702e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.898111979166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>187097.2979556137</v>
+        <v>216216.2691341848</v>
       </c>
     </row>
     <row r="12">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>149.0893996477652</v>
+        <v>172.6168239131994</v>
       </c>
       <c r="AB12" t="n">
-        <v>203.990693958087</v>
+        <v>236.1819537947411</v>
       </c>
       <c r="AC12" t="n">
-        <v>184.5221084295223</v>
+        <v>213.6410796080934</v>
       </c>
       <c r="AD12" t="n">
-        <v>149089.3996477652</v>
+        <v>172616.8239131994</v>
       </c>
       <c r="AE12" t="n">
-        <v>203990.693958087</v>
+        <v>236181.9537947411</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.044049769571619e-06</v>
+        <v>7.708582988704607e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.88671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>184522.1084295223</v>
+        <v>213641.0796080934</v>
       </c>
     </row>
     <row r="13">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>146.3443409716525</v>
+        <v>169.8717652370867</v>
       </c>
       <c r="AB13" t="n">
-        <v>200.2347835739897</v>
+        <v>232.4260434106438</v>
       </c>
       <c r="AC13" t="n">
-        <v>181.1246568610287</v>
+        <v>210.2436280395998</v>
       </c>
       <c r="AD13" t="n">
-        <v>146344.3409716525</v>
+        <v>169871.7652370867</v>
       </c>
       <c r="AE13" t="n">
-        <v>200234.7835739897</v>
+        <v>232426.0434106438</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.070707465688212e-06</v>
+        <v>7.759396671649017e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.8623046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>181124.6568610288</v>
+        <v>210243.6280395998</v>
       </c>
     </row>
     <row r="14">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>144.7689574338362</v>
+        <v>168.2963816992703</v>
       </c>
       <c r="AB14" t="n">
-        <v>198.0792743165339</v>
+        <v>230.2705341531881</v>
       </c>
       <c r="AC14" t="n">
-        <v>179.1748663818276</v>
+        <v>208.2938375603987</v>
       </c>
       <c r="AD14" t="n">
-        <v>144768.9574338362</v>
+        <v>168296.3816992703</v>
       </c>
       <c r="AE14" t="n">
-        <v>198079.2743165339</v>
+        <v>230270.5341531881</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.078337748272309e-06</v>
+        <v>7.773941167854121e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>179174.8663818276</v>
+        <v>208293.8375603987</v>
       </c>
     </row>
     <row r="15">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>143.5972373657464</v>
+        <v>167.1246616311805</v>
       </c>
       <c r="AB15" t="n">
-        <v>196.4760752267332</v>
+        <v>228.6673350633873</v>
       </c>
       <c r="AC15" t="n">
-        <v>177.7246743630529</v>
+        <v>206.843645541624</v>
       </c>
       <c r="AD15" t="n">
-        <v>143597.2373657464</v>
+        <v>167124.6616311806</v>
       </c>
       <c r="AE15" t="n">
-        <v>196476.0752267332</v>
+        <v>228667.3350633873</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>7.800636762154626e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>177724.6743630529</v>
+        <v>206843.645541624</v>
       </c>
     </row>
     <row r="16">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>143.1830217325522</v>
+        <v>166.7104459979863</v>
       </c>
       <c r="AB16" t="n">
-        <v>195.909327123493</v>
+        <v>228.1005869601471</v>
       </c>
       <c r="AC16" t="n">
-        <v>177.2120159033499</v>
+        <v>206.3309870819209</v>
       </c>
       <c r="AD16" t="n">
-        <v>143183.0217325522</v>
+        <v>166710.4459979863</v>
       </c>
       <c r="AE16" t="n">
-        <v>195909.327123493</v>
+        <v>228100.5869601471</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>7.800636762154626e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>177212.0159033498</v>
+        <v>206330.9870819209</v>
       </c>
     </row>
     <row r="17">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>143.7359010126759</v>
+        <v>167.26332527811</v>
       </c>
       <c r="AB17" t="n">
-        <v>196.6658009458704</v>
+        <v>228.8570607825245</v>
       </c>
       <c r="AC17" t="n">
-        <v>177.8962929258374</v>
+        <v>207.0152641044085</v>
       </c>
       <c r="AD17" t="n">
-        <v>143735.9010126759</v>
+        <v>167263.32527811</v>
       </c>
       <c r="AE17" t="n">
-        <v>196665.8009458704</v>
+        <v>228857.0607825245</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.0917631821861e-06</v>
+        <v>7.799532116873225e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>177896.2929258374</v>
+        <v>207015.2641044085</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.2046156115424</v>
+        <v>200.509602230543</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.5132198604104</v>
+        <v>274.3460836310435</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.4179230878444</v>
+        <v>248.1628784565239</v>
       </c>
       <c r="AD2" t="n">
-        <v>169204.6156115424</v>
+        <v>200509.602230543</v>
       </c>
       <c r="AE2" t="n">
-        <v>231513.2198604104</v>
+        <v>274346.0836310435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.550995224233046e-06</v>
+        <v>7.562690521746633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.939778645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209417.9230878444</v>
+        <v>248162.8784565239</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.7432163674632</v>
+        <v>156.5848500038242</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.7298572019355</v>
+        <v>214.2462998111734</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.0040603041268</v>
+        <v>193.7989336538267</v>
       </c>
       <c r="AD3" t="n">
-        <v>135743.2163674633</v>
+        <v>156584.8500038242</v>
       </c>
       <c r="AE3" t="n">
-        <v>185729.8572019355</v>
+        <v>214246.2998111734</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.207565058700319e-06</v>
+        <v>8.961012442909692e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.168294270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>168004.0603041268</v>
+        <v>193798.9336538267</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.246945075769</v>
+        <v>146.466590840198</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.6859545889815</v>
+        <v>200.402051237417</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.6366283966797</v>
+        <v>181.2759607334203</v>
       </c>
       <c r="AD4" t="n">
-        <v>115246.945075769</v>
+        <v>146466.590840198</v>
       </c>
       <c r="AE4" t="n">
-        <v>157685.9545889815</v>
+        <v>200402.051237417</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.424517632039555e-06</v>
+        <v>9.423064646997222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.96484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>142636.6283966797</v>
+        <v>181275.9607334203</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.9573065051389</v>
+        <v>129.8841914875204</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.0801936173795</v>
+        <v>177.7132808792667</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.8521891739433</v>
+        <v>160.7525747743554</v>
       </c>
       <c r="AD5" t="n">
-        <v>108957.3065051389</v>
+        <v>129884.1914875204</v>
       </c>
       <c r="AE5" t="n">
-        <v>149080.1936173795</v>
+        <v>177713.2808792667</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.538221042309249e-06</v>
+        <v>9.665223154355566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.865559895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>134852.1891739433</v>
+        <v>160752.5747743554</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.9568324926703</v>
+        <v>129.8837174750518</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.0795450526081</v>
+        <v>177.7126323144953</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.8516025072834</v>
+        <v>160.7519881076955</v>
       </c>
       <c r="AD6" t="n">
-        <v>108956.8324926703</v>
+        <v>129883.7174750518</v>
       </c>
       <c r="AE6" t="n">
-        <v>149079.5450526081</v>
+        <v>177712.6323144953</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.54339427803716e-06</v>
+        <v>9.676240792605048e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>134851.6025072834</v>
+        <v>160751.9881076955</v>
       </c>
     </row>
   </sheetData>
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.8536578474269</v>
+        <v>266.7690459860308</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.9688915619546</v>
+        <v>365.0051777377817</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.4315096305364</v>
+        <v>330.1695958624715</v>
       </c>
       <c r="AD2" t="n">
-        <v>233853.6578474269</v>
+        <v>266769.0459860308</v>
       </c>
       <c r="AE2" t="n">
-        <v>319968.8915619546</v>
+        <v>365005.1777377817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.033986404358262e-06</v>
+        <v>6.160041346010108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.530598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>289431.5096305364</v>
+        <v>330169.5958624715</v>
       </c>
     </row>
     <row r="3">
@@ -10939,28 +10939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2080985926485</v>
+        <v>188.0664393390283</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4132530781609</v>
+        <v>257.3207992092781</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.709251380952</v>
+        <v>232.7624632848295</v>
       </c>
       <c r="AD3" t="n">
-        <v>166208.0985926485</v>
+        <v>188066.4393390283</v>
       </c>
       <c r="AE3" t="n">
-        <v>227413.2530781609</v>
+        <v>257320.7992092781</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.797277417457705e-06</v>
+        <v>7.70978599647272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4189453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>205709.251380952</v>
+        <v>232762.4632848295</v>
       </c>
     </row>
     <row r="4">
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.8265972253628</v>
+        <v>173.6849379717426</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.7358484403886</v>
+        <v>237.6433945715058</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.9098306243916</v>
+        <v>214.9630425282691</v>
       </c>
       <c r="AD4" t="n">
-        <v>151826.5972253628</v>
+        <v>173684.9379717426</v>
       </c>
       <c r="AE4" t="n">
-        <v>207735.8484403886</v>
+        <v>237643.3945715058</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068445236510999e-06</v>
+        <v>8.260350420451739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.124348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>187909.8306243916</v>
+        <v>214963.0425282691</v>
       </c>
     </row>
     <row r="5">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.4615174634245</v>
+        <v>166.2062238928819</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.60793609998</v>
+        <v>227.4106880312343</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.1800909704971</v>
+        <v>205.706931138504</v>
       </c>
       <c r="AD5" t="n">
-        <v>133461.5174634245</v>
+        <v>166206.2238928819</v>
       </c>
       <c r="AE5" t="n">
-        <v>182607.9360999799</v>
+        <v>227410.6880312343</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.198564547402732e-06</v>
+        <v>8.524537607927602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>165180.0909704971</v>
+        <v>205706.931138504</v>
       </c>
     </row>
     <row r="6">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.5369116043241</v>
+        <v>149.4805036967244</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.5016289883992</v>
+        <v>204.5258197721656</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.8474384323695</v>
+        <v>185.0061625869592</v>
       </c>
       <c r="AD6" t="n">
-        <v>127536.9116043241</v>
+        <v>149480.5036967245</v>
       </c>
       <c r="AE6" t="n">
-        <v>174501.6289883992</v>
+        <v>204525.8197721656</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.294246576331043e-06</v>
+        <v>8.718805206958983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.907877604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157847.4384323695</v>
+        <v>185006.1625869593</v>
       </c>
     </row>
     <row r="7">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.6663907850295</v>
+        <v>145.6099828774299</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.2058116481158</v>
+        <v>199.2300024318822</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.0570464663147</v>
+        <v>180.2157706209045</v>
       </c>
       <c r="AD7" t="n">
-        <v>123666.3907850295</v>
+        <v>145609.9828774299</v>
       </c>
       <c r="AE7" t="n">
-        <v>169205.8116481158</v>
+        <v>199230.0024318822</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.346108710545417e-06</v>
+        <v>8.824103269796034e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>153057.0464663148</v>
+        <v>180215.7706209045</v>
       </c>
     </row>
     <row r="8">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.0863919066413</v>
+        <v>143.0299839990417</v>
       </c>
       <c r="AB8" t="n">
-        <v>165.6757433611894</v>
+        <v>195.6999341449558</v>
       </c>
       <c r="AC8" t="n">
-        <v>149.8638829422096</v>
+        <v>177.0226070967992</v>
       </c>
       <c r="AD8" t="n">
-        <v>121086.3919066413</v>
+        <v>143029.9839990417</v>
       </c>
       <c r="AE8" t="n">
-        <v>165675.7433611894</v>
+        <v>195699.9341449558</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.377452823470208e-06</v>
+        <v>8.887742655685622e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.8330078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>149863.8829422095</v>
+        <v>177022.6070967992</v>
       </c>
     </row>
     <row r="9">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.3630380787786</v>
+        <v>143.306630171179</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.0542628586752</v>
+        <v>196.0784536424416</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.2062770701109</v>
+        <v>177.3650012247006</v>
       </c>
       <c r="AD9" t="n">
-        <v>121363.0380787786</v>
+        <v>143306.630171179</v>
       </c>
       <c r="AE9" t="n">
-        <v>166054.2628586752</v>
+        <v>196078.4536424417</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.377762140374072e-06</v>
+        <v>8.888370675941112e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.8330078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>150206.2770701109</v>
+        <v>177365.0012247006</v>
       </c>
     </row>
   </sheetData>
@@ -11872,28 +11872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.5503110850731</v>
+        <v>155.7286285336315</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.465915684189</v>
+        <v>213.074779821831</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.7653089943897</v>
+        <v>192.7392218880281</v>
       </c>
       <c r="AD2" t="n">
-        <v>135550.3110850731</v>
+        <v>155728.6285336314</v>
       </c>
       <c r="AE2" t="n">
-        <v>185465.915684189</v>
+        <v>213074.779821831</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99537858544843e-06</v>
+        <v>8.896927716302612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.560546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>167765.3089943897</v>
+        <v>192739.2218880281</v>
       </c>
     </row>
     <row r="3">
@@ -11978,28 +11978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.4854881517104</v>
+        <v>133.4932133996765</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.2758515154908</v>
+        <v>182.6513038782859</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4565421779212</v>
+        <v>165.2193197889086</v>
       </c>
       <c r="AD3" t="n">
-        <v>113485.4881517104</v>
+        <v>133493.2133996765</v>
       </c>
       <c r="AE3" t="n">
-        <v>155275.8515154908</v>
+        <v>182651.3038782859</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553930138689526e-06</v>
+        <v>1.014071292682399e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.000651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>140456.5421779212</v>
+        <v>165219.3197889086</v>
       </c>
     </row>
     <row r="4">
@@ -12084,28 +12084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.8704209348741</v>
+        <v>118.9633975288608</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.2788717781655</v>
+        <v>162.7709687936099</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.3680461207825</v>
+        <v>147.2363359824822</v>
       </c>
       <c r="AD4" t="n">
-        <v>98870.4209348741</v>
+        <v>118963.3975288608</v>
       </c>
       <c r="AE4" t="n">
-        <v>135278.8717781655</v>
+        <v>162770.9687936098</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.667991067096876e-06</v>
+        <v>1.039470433554569e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.902994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>122368.0461207825</v>
+        <v>147236.3359824822</v>
       </c>
     </row>
   </sheetData>
@@ -12381,28 +12381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.9881864999026</v>
+        <v>479.3265156096778</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.0652947429118</v>
+        <v>655.8356850505933</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.6548525779988</v>
+        <v>593.2436477405289</v>
       </c>
       <c r="AD2" t="n">
-        <v>431988.1864999026</v>
+        <v>479326.5156096778</v>
       </c>
       <c r="AE2" t="n">
-        <v>591065.2947429117</v>
+        <v>655835.6850505932</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142269743341706e-06</v>
+        <v>4.050525799100448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>534654.8525779988</v>
+        <v>593243.6477405289</v>
       </c>
     </row>
     <row r="3">
@@ -12487,28 +12487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.9582209702225</v>
+        <v>273.7127711339604</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.003865309734</v>
+        <v>374.5058888207122</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.3634964101146</v>
+        <v>338.7635724139789</v>
       </c>
       <c r="AD3" t="n">
-        <v>249958.2209702225</v>
+        <v>273712.7711339603</v>
       </c>
       <c r="AE3" t="n">
-        <v>342003.865309734</v>
+        <v>374505.8888207122</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091794601656782e-06</v>
+        <v>5.845852903656834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>309363.4964101146</v>
+        <v>338763.5724139789</v>
       </c>
     </row>
     <row r="4">
@@ -12593,28 +12593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.6814887962173</v>
+        <v>231.5212903059724</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.158975231499</v>
+        <v>316.7776433949442</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.0392414551149</v>
+        <v>286.5448297096395</v>
       </c>
       <c r="AD4" t="n">
-        <v>207681.4887962173</v>
+        <v>231521.2903059724</v>
       </c>
       <c r="AE4" t="n">
-        <v>284158.975231499</v>
+        <v>316777.6433949441</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.442027611392151e-06</v>
+        <v>6.508060754016894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.5263671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>257039.2414551149</v>
+        <v>286544.8297096395</v>
       </c>
     </row>
     <row r="5">
@@ -12699,28 +12699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.4244268125181</v>
+        <v>218.0936361216809</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.0200781651134</v>
+        <v>298.4053345537117</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.6314952666374</v>
+        <v>269.925948238511</v>
       </c>
       <c r="AD5" t="n">
-        <v>194424.4268125181</v>
+        <v>218093.6361216809</v>
       </c>
       <c r="AE5" t="n">
-        <v>266020.0781651135</v>
+        <v>298405.3345537117</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.629731063726412e-06</v>
+        <v>6.862963622165591e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.2919921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>240631.4952666374</v>
+        <v>269925.948238511</v>
       </c>
     </row>
     <row r="6">
@@ -12805,28 +12805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.5670340591136</v>
+        <v>210.2362433682764</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.2692467562074</v>
+        <v>287.6545031448057</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.9067081185073</v>
+        <v>260.2011610903809</v>
       </c>
       <c r="AD6" t="n">
-        <v>186567.0340591136</v>
+        <v>210236.2433682764</v>
       </c>
       <c r="AE6" t="n">
-        <v>255269.2467562074</v>
+        <v>287654.5031448057</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.743061450041437e-06</v>
+        <v>7.077244599161031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.161783854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>230906.7081185073</v>
+        <v>260201.1610903809</v>
       </c>
     </row>
     <row r="7">
@@ -12911,28 +12911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.5264973533727</v>
+        <v>205.1957066625354</v>
       </c>
       <c r="AB7" t="n">
-        <v>248.3725620626309</v>
+        <v>280.7578184512291</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.6682333325258</v>
+        <v>253.9626863043994</v>
       </c>
       <c r="AD7" t="n">
-        <v>181526.4973533727</v>
+        <v>205195.7066625354</v>
       </c>
       <c r="AE7" t="n">
-        <v>248372.562062631</v>
+        <v>280757.8184512291</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815041560268548e-06</v>
+        <v>7.213341976441918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.083658854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>224668.2333325258</v>
+        <v>253962.6863043994</v>
       </c>
     </row>
     <row r="8">
@@ -13017,28 +13017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.5074594200302</v>
+        <v>201.176668729193</v>
       </c>
       <c r="AB8" t="n">
-        <v>242.8735370547947</v>
+        <v>275.258793443393</v>
       </c>
       <c r="AC8" t="n">
-        <v>219.6940275535057</v>
+        <v>248.9884805253792</v>
       </c>
       <c r="AD8" t="n">
-        <v>177507.4594200302</v>
+        <v>201176.668729193</v>
       </c>
       <c r="AE8" t="n">
-        <v>242873.5370547947</v>
+        <v>275258.793443393</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.870270979950786e-06</v>
+        <v>7.317767756616216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.025065104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>219694.0275535057</v>
+        <v>248988.4805253792</v>
       </c>
     </row>
     <row r="9">
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>162.1490673259014</v>
+        <v>197.6100765995332</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.8595074271791</v>
+        <v>270.3788247446551</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.6855474201672</v>
+        <v>244.5742491901682</v>
       </c>
       <c r="AD9" t="n">
-        <v>162149.0673259014</v>
+        <v>197610.0765995332</v>
       </c>
       <c r="AE9" t="n">
-        <v>221859.5074271791</v>
+        <v>270378.8247446551</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.915928576464525e-06</v>
+        <v>7.404095481301034e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.977864583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>200685.5474201672</v>
+        <v>244574.2491901683</v>
       </c>
     </row>
     <row r="10">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>159.8210004757541</v>
+        <v>183.5754611309374</v>
       </c>
       <c r="AB10" t="n">
-        <v>218.6741436557485</v>
+        <v>251.176044696996</v>
       </c>
       <c r="AC10" t="n">
-        <v>197.8041902963948</v>
+        <v>227.2041555189805</v>
       </c>
       <c r="AD10" t="n">
-        <v>159821.0004757541</v>
+        <v>183575.4611309374</v>
       </c>
       <c r="AE10" t="n">
-        <v>218674.1436557485</v>
+        <v>251176.044696996</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.940145289080826e-06</v>
+        <v>7.449883561689417e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.953450520833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>197804.1902963948</v>
+        <v>227204.1555189805</v>
       </c>
     </row>
     <row r="11">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>156.9034967075361</v>
+        <v>180.6579573627195</v>
       </c>
       <c r="AB11" t="n">
-        <v>214.6822862888924</v>
+        <v>247.1841873301398</v>
       </c>
       <c r="AC11" t="n">
-        <v>194.1933101940231</v>
+        <v>223.5932754166089</v>
       </c>
       <c r="AD11" t="n">
-        <v>156903.4967075361</v>
+        <v>180657.9573627195</v>
       </c>
       <c r="AE11" t="n">
-        <v>214682.2862888924</v>
+        <v>247184.1873301398</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.975656753035957e-06</v>
+        <v>7.517027347555387e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>194193.3101940231</v>
+        <v>223593.2754166089</v>
       </c>
     </row>
     <row r="12">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>154.3324548879081</v>
+        <v>178.0869155430914</v>
       </c>
       <c r="AB12" t="n">
-        <v>211.1644734449192</v>
+        <v>243.6663744861667</v>
       </c>
       <c r="AC12" t="n">
-        <v>191.0112324705963</v>
+        <v>220.4111976931821</v>
       </c>
       <c r="AD12" t="n">
-        <v>154332.4548879081</v>
+        <v>178086.9155430914</v>
       </c>
       <c r="AE12" t="n">
-        <v>211164.4734449192</v>
+        <v>243666.3744861667</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.998820565103724e-06</v>
+        <v>7.560824641839928e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.896484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>191011.2324705963</v>
+        <v>220411.1976931821</v>
       </c>
     </row>
     <row r="13">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>153.0798307036046</v>
+        <v>176.8342913587879</v>
       </c>
       <c r="AB13" t="n">
-        <v>209.4505777740771</v>
+        <v>241.9524788153246</v>
       </c>
       <c r="AC13" t="n">
-        <v>189.4609085971111</v>
+        <v>218.860873819697</v>
       </c>
       <c r="AD13" t="n">
-        <v>153079.8307036046</v>
+        <v>176834.2913587879</v>
       </c>
       <c r="AE13" t="n">
-        <v>209450.5777740772</v>
+        <v>241952.4788153246</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.010976780527717e-06</v>
+        <v>7.583809172311567e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.883463541666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>189460.9085971111</v>
+        <v>218860.8738196969</v>
       </c>
     </row>
     <row r="14">
@@ -13653,28 +13653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>150.1596003546137</v>
+        <v>173.9140610097971</v>
       </c>
       <c r="AB14" t="n">
-        <v>205.4549897791194</v>
+        <v>237.9568908203669</v>
       </c>
       <c r="AC14" t="n">
-        <v>185.8466539125479</v>
+        <v>215.2466191351337</v>
       </c>
       <c r="AD14" t="n">
-        <v>150159.6003546137</v>
+        <v>173914.0610097971</v>
       </c>
       <c r="AE14" t="n">
-        <v>205454.9897791194</v>
+        <v>237956.8908203669</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.024951642353725e-06</v>
+        <v>7.610232333326208e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.870442708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>185846.6539125479</v>
+        <v>215246.6191351337</v>
       </c>
     </row>
     <row r="15">
@@ -13759,28 +13759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>148.194132523264</v>
+        <v>171.9485931784473</v>
       </c>
       <c r="AB15" t="n">
-        <v>202.7657499819469</v>
+        <v>235.2676510231944</v>
       </c>
       <c r="AC15" t="n">
-        <v>183.414071387245</v>
+        <v>212.8140366098308</v>
       </c>
       <c r="AD15" t="n">
-        <v>148194.132523264</v>
+        <v>171948.5931784473</v>
       </c>
       <c r="AE15" t="n">
-        <v>202765.7499819469</v>
+        <v>235267.6510231944</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.046583962714533e-06</v>
+        <v>7.651133938732431e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.849283854166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>183414.071387245</v>
+        <v>212814.0366098308</v>
       </c>
     </row>
     <row r="16">
@@ -13865,28 +13865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>147.6274420011915</v>
+        <v>171.3819026563748</v>
       </c>
       <c r="AB16" t="n">
-        <v>201.9903790090264</v>
+        <v>234.4922800502738</v>
       </c>
       <c r="AC16" t="n">
-        <v>182.7127007317397</v>
+        <v>212.1126659543255</v>
       </c>
       <c r="AD16" t="n">
-        <v>147627.4420011915</v>
+        <v>171381.9026563748</v>
       </c>
       <c r="AE16" t="n">
-        <v>201990.3790090264</v>
+        <v>234492.2800502738</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.043138106373873e-06</v>
+        <v>7.644618638756218e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.8525390625</v>
       </c>
       <c r="AH16" t="n">
-        <v>182712.7007317398</v>
+        <v>212112.6659543255</v>
       </c>
     </row>
     <row r="17">
@@ -13971,28 +13971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>146.3278439701579</v>
+        <v>170.0823046253413</v>
       </c>
       <c r="AB17" t="n">
-        <v>200.2122116487485</v>
+        <v>232.7141126899959</v>
       </c>
       <c r="AC17" t="n">
-        <v>181.1042391686526</v>
+        <v>210.5042043912384</v>
       </c>
       <c r="AD17" t="n">
-        <v>146327.8439701579</v>
+        <v>170082.3046253413</v>
       </c>
       <c r="AE17" t="n">
-        <v>200212.2116487485</v>
+        <v>232714.1126899959</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.056060067651346e-06</v>
+        <v>7.669051013667016e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>181104.2391686526</v>
+        <v>210504.2043912384</v>
       </c>
     </row>
     <row r="18">
@@ -14077,28 +14077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>146.7057105766567</v>
+        <v>170.4601712318401</v>
       </c>
       <c r="AB18" t="n">
-        <v>200.729225410058</v>
+        <v>233.2311264513055</v>
       </c>
       <c r="AC18" t="n">
-        <v>181.5719098622164</v>
+        <v>210.9718750848021</v>
       </c>
       <c r="AD18" t="n">
-        <v>146705.7105766567</v>
+        <v>170460.1712318401</v>
       </c>
       <c r="AE18" t="n">
-        <v>200729.225410058</v>
+        <v>233231.1264513055</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.057304404663251e-06</v>
+        <v>7.671403760880649e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.839518229166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>181571.9098622164</v>
+        <v>210971.8750848021</v>
       </c>
     </row>
   </sheetData>
@@ -14374,28 +14374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.878832587672</v>
+        <v>137.3927592112487</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.2870191934477</v>
+        <v>187.9868344934958</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.8940124494227</v>
+        <v>170.0456348506688</v>
       </c>
       <c r="AD2" t="n">
-        <v>117878.832587672</v>
+        <v>137392.7592112487</v>
       </c>
       <c r="AE2" t="n">
-        <v>161287.0191934477</v>
+        <v>187986.8344934958</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283649693382766e-06</v>
+        <v>9.820552847919312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.352213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>145894.0124494227</v>
+        <v>170045.6348506688</v>
       </c>
     </row>
     <row r="3">
@@ -14480,28 +14480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.53095190829536</v>
+        <v>122.759037153548</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.9731746952557</v>
+        <v>167.9643303799064</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.7595945138531</v>
+        <v>151.934050427913</v>
       </c>
       <c r="AD3" t="n">
-        <v>93530.95190829536</v>
+        <v>122759.037153548</v>
       </c>
       <c r="AE3" t="n">
-        <v>127973.1746952557</v>
+        <v>167964.3303799064</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.704053340253062e-06</v>
+        <v>1.078435626954958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.963216145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115759.5945138531</v>
+        <v>151934.050427913</v>
       </c>
     </row>
     <row r="4">
@@ -14586,28 +14586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.07044879342401</v>
+        <v>123.2985340386767</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.7113381344111</v>
+        <v>168.7024938190618</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.4273086703947</v>
+        <v>152.6017645844545</v>
       </c>
       <c r="AD4" t="n">
-        <v>94070.448793424</v>
+        <v>123298.5340386767</v>
       </c>
       <c r="AE4" t="n">
-        <v>128711.3381344111</v>
+        <v>168702.4938190618</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.701304106595056e-06</v>
+        <v>1.077805346788224e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.966471354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>116427.3086703946</v>
+        <v>152601.7645844545</v>
       </c>
     </row>
   </sheetData>
@@ -14883,28 +14883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.6874371630055</v>
+        <v>343.788057816956</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.7280139719059</v>
+        <v>470.3859875638478</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.2880070244291</v>
+        <v>425.4930091016334</v>
       </c>
       <c r="AD2" t="n">
-        <v>309687.4371630055</v>
+        <v>343788.057816956</v>
       </c>
       <c r="AE2" t="n">
-        <v>423728.0139719059</v>
+        <v>470385.9875638478</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608941770570773e-06</v>
+        <v>5.113489814915163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.207682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>383288.0070244292</v>
+        <v>425493.0091016334</v>
       </c>
     </row>
     <row r="3">
@@ -14989,28 +14989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.7430875441732</v>
+        <v>229.8436186895721</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.8243279533688</v>
+        <v>314.4821790757384</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.2635499873828</v>
+        <v>284.4684412833536</v>
       </c>
       <c r="AD3" t="n">
-        <v>195743.0875441732</v>
+        <v>229843.6186895721</v>
       </c>
       <c r="AE3" t="n">
-        <v>267824.3279533688</v>
+        <v>314482.1790757384</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.469135258186204e-06</v>
+        <v>6.799457162824027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.66796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>242263.5499873828</v>
+        <v>284468.4412833536</v>
       </c>
     </row>
     <row r="4">
@@ -15095,28 +15095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.9661270615566</v>
+        <v>198.6714570488497</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.7646181231476</v>
+        <v>271.8310523002099</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.786380884808</v>
+        <v>245.8878781860356</v>
       </c>
       <c r="AD4" t="n">
-        <v>175966.1270615566</v>
+        <v>198671.4570488497</v>
       </c>
       <c r="AE4" t="n">
-        <v>240764.6181231476</v>
+        <v>271831.0523002099</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.771357333832672e-06</v>
+        <v>7.391808254401909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.295247395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>217786.380884808</v>
+        <v>245887.8781860356</v>
       </c>
     </row>
     <row r="5">
@@ -15201,28 +15201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.5321379165607</v>
+        <v>189.2374679038539</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.8566179767435</v>
+        <v>258.9230521538058</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.1103021558806</v>
+        <v>234.2117994571081</v>
       </c>
       <c r="AD5" t="n">
-        <v>166532.1379165608</v>
+        <v>189237.4679038539</v>
       </c>
       <c r="AE5" t="n">
-        <v>227856.6179767435</v>
+        <v>258923.0521538058</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.92848892996233e-06</v>
+        <v>7.699784011267723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.122721354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206110.3021558806</v>
+        <v>234211.7994571081</v>
       </c>
     </row>
     <row r="6">
@@ -15307,28 +15307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.1474685995343</v>
+        <v>182.8527985868274</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.1208317454613</v>
+        <v>250.1872659225236</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.2082471017563</v>
+        <v>226.3097444029838</v>
       </c>
       <c r="AD6" t="n">
-        <v>160147.4685995343</v>
+        <v>182852.7985868274</v>
       </c>
       <c r="AE6" t="n">
-        <v>219120.8317454613</v>
+        <v>250187.2659225236</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031286231293513e-06</v>
+        <v>7.901265301224902e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>198208.2471017562</v>
+        <v>226309.7444029838</v>
       </c>
     </row>
     <row r="7">
@@ -15413,28 +15413,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.1762262504335</v>
+        <v>166.9668075837471</v>
       </c>
       <c r="AB7" t="n">
-        <v>197.2682733619484</v>
+        <v>228.45135219166</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.4412662201006</v>
+        <v>206.6482757720403</v>
       </c>
       <c r="AD7" t="n">
-        <v>144176.2262504335</v>
+        <v>166966.8075837471</v>
       </c>
       <c r="AE7" t="n">
-        <v>197268.2733619484</v>
+        <v>228451.35219166</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.09666650910047e-06</v>
+        <v>8.029409742175402e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.953450520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>178441.2662201006</v>
+        <v>206648.2757720403</v>
       </c>
     </row>
     <row r="8">
@@ -15519,28 +15519,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.802010413597</v>
+        <v>163.5925917469107</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.6515223940944</v>
+        <v>223.8346012238059</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.2651314849663</v>
+        <v>202.472141036906</v>
       </c>
       <c r="AD8" t="n">
-        <v>140802.010413597</v>
+        <v>163592.5917469107</v>
       </c>
       <c r="AE8" t="n">
-        <v>192651.5223940944</v>
+        <v>223834.6012238059</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.142343141540946e-06</v>
+        <v>8.118935310510683e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.909505208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>174265.1314849663</v>
+        <v>202472.141036906</v>
       </c>
     </row>
     <row r="9">
@@ -15625,28 +15625,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.7070460112025</v>
+        <v>160.4976273445162</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.4168555585475</v>
+        <v>219.599934388259</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.4346153088104</v>
+        <v>198.6416248607502</v>
       </c>
       <c r="AD9" t="n">
-        <v>137707.0460112025</v>
+        <v>160497.6273445162</v>
       </c>
       <c r="AE9" t="n">
-        <v>188416.8555585475</v>
+        <v>219599.934388259</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.176078170729012e-06</v>
+        <v>8.185055501503406e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.878580729166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>170434.6153088104</v>
+        <v>198641.6248607502</v>
       </c>
     </row>
     <row r="10">
@@ -15731,28 +15731,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.4953107854526</v>
+        <v>157.2858921187663</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.0224177309206</v>
+        <v>215.205496560632</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.4595764598186</v>
+        <v>194.6665860117583</v>
       </c>
       <c r="AD10" t="n">
-        <v>134495.3107854526</v>
+        <v>157285.8921187663</v>
       </c>
       <c r="AE10" t="n">
-        <v>184022.4177309205</v>
+        <v>215205.496560632</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.207126339185282e-06</v>
+        <v>8.245909482594053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.849283854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>166459.5764598186</v>
+        <v>194666.5860117583</v>
       </c>
     </row>
     <row r="11">
@@ -15837,28 +15837,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.1642700514257</v>
+        <v>155.9548513847394</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.201229077253</v>
+        <v>213.3843079069645</v>
       </c>
       <c r="AC11" t="n">
-        <v>164.8121994952022</v>
+        <v>193.0192090471419</v>
       </c>
       <c r="AD11" t="n">
-        <v>133164.2700514257</v>
+        <v>155954.8513847394</v>
       </c>
       <c r="AE11" t="n">
-        <v>182201.229077253</v>
+        <v>213384.3079069645</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.219067942437696e-06</v>
+        <v>8.269314859936612e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.839518229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>164812.1994952022</v>
+        <v>193019.209047142</v>
       </c>
     </row>
     <row r="12">
@@ -15943,28 +15943,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.1534934281266</v>
+        <v>154.9440747614403</v>
       </c>
       <c r="AB12" t="n">
-        <v>180.8182399089385</v>
+        <v>212.00131873865</v>
       </c>
       <c r="AC12" t="n">
-        <v>163.5612008720737</v>
+        <v>191.7682104240134</v>
       </c>
       <c r="AD12" t="n">
-        <v>132153.4934281266</v>
+        <v>154944.0747614403</v>
       </c>
       <c r="AE12" t="n">
-        <v>180818.2399089385</v>
+        <v>212001.31873865</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.230412465527487e-06</v>
+        <v>8.291549968412041e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>163561.2008720737</v>
+        <v>191768.2104240134</v>
       </c>
     </row>
   </sheetData>
@@ -16240,28 +16240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.1537435983693</v>
+        <v>406.6519118078161</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.7782408530779</v>
+        <v>556.399085951647</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.7481771646642</v>
+        <v>503.2971380994426</v>
       </c>
       <c r="AD2" t="n">
-        <v>360153.7435983693</v>
+        <v>406651.9118078161</v>
       </c>
       <c r="AE2" t="n">
-        <v>492778.2408530778</v>
+        <v>556399.0859516469</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365916779898886e-06</v>
+        <v>4.548955482663929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.707356770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>445748.1771646642</v>
+        <v>503297.1380994426</v>
       </c>
     </row>
     <row r="3">
@@ -16346,28 +16346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.3384786407399</v>
+        <v>251.1907695841815</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.0038506562063</v>
+        <v>343.690292699559</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.7536585936788</v>
+        <v>310.888973536771</v>
       </c>
       <c r="AD3" t="n">
-        <v>216338.4786407399</v>
+        <v>251190.7695841815</v>
       </c>
       <c r="AE3" t="n">
-        <v>296003.8506562063</v>
+        <v>343690.292699559</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.272794668620894e-06</v>
+        <v>6.292612393616215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8486328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>267753.6585936788</v>
+        <v>310888.973536771</v>
       </c>
     </row>
     <row r="4">
@@ -16452,28 +16452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.7431936051821</v>
+        <v>214.9496967911703</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.3514966031774</v>
+        <v>294.103658060895</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.3130379800848</v>
+        <v>266.0348177127265</v>
       </c>
       <c r="AD4" t="n">
-        <v>191743.1936051821</v>
+        <v>214949.6967911703</v>
       </c>
       <c r="AE4" t="n">
-        <v>262351.4966031774</v>
+        <v>294103.658060895</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.600503149858898e-06</v>
+        <v>6.922698500240302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>237313.0379800848</v>
+        <v>266034.8177127265</v>
       </c>
     </row>
     <row r="5">
@@ -16558,28 +16558,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.362205139451</v>
+        <v>203.5687083254392</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.7795260905967</v>
+        <v>278.5316875483144</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.2272344778221</v>
+        <v>251.9490142104638</v>
       </c>
       <c r="AD5" t="n">
-        <v>180362.205139451</v>
+        <v>203568.7083254392</v>
       </c>
       <c r="AE5" t="n">
-        <v>246779.5260905967</v>
+        <v>278531.6875483145</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.774058965569593e-06</v>
+        <v>7.256394801874004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.205729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>223227.2344778221</v>
+        <v>251949.0142104638</v>
       </c>
     </row>
     <row r="6">
@@ -16664,28 +16664,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.9027618639279</v>
+        <v>197.1092650499162</v>
       </c>
       <c r="AB6" t="n">
-        <v>237.9414308305055</v>
+        <v>269.6935922882232</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.2326346250065</v>
+        <v>243.9544143576482</v>
       </c>
       <c r="AD6" t="n">
-        <v>173902.7618639279</v>
+        <v>197109.2650499162</v>
       </c>
       <c r="AE6" t="n">
-        <v>237941.4308305055</v>
+        <v>269693.5922882232</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.874389827573135e-06</v>
+        <v>7.449301259391465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.0966796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>215232.6346250065</v>
+        <v>243954.4143576482</v>
       </c>
     </row>
     <row r="7">
@@ -16770,28 +16770,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>168.7434588117319</v>
+        <v>191.9499619977202</v>
       </c>
       <c r="AB7" t="n">
-        <v>230.8822447821078</v>
+        <v>262.6344062398255</v>
       </c>
       <c r="AC7" t="n">
-        <v>208.8471673854358</v>
+        <v>237.5689471180775</v>
       </c>
       <c r="AD7" t="n">
-        <v>168743.4588117319</v>
+        <v>191949.9619977202</v>
       </c>
       <c r="AE7" t="n">
-        <v>230882.2447821078</v>
+        <v>262634.4062398255</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.950929892366897e-06</v>
+        <v>7.596465077808575e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.016927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>208847.1673854358</v>
+        <v>237568.9471180775</v>
       </c>
     </row>
     <row r="8">
@@ -16876,28 +16876,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.0315297697873</v>
+        <v>188.7984798586573</v>
       </c>
       <c r="AB8" t="n">
-        <v>210.7527344224273</v>
+        <v>258.3224093435824</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.6387892425315</v>
+        <v>233.6684811536848</v>
       </c>
       <c r="AD8" t="n">
-        <v>154031.5297697873</v>
+        <v>188798.4798586573</v>
       </c>
       <c r="AE8" t="n">
-        <v>210752.7344224273</v>
+        <v>258322.4093435824</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.994806362630837e-06</v>
+        <v>7.680826502378894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.972981770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>190638.7892425315</v>
+        <v>233668.4811536848</v>
       </c>
     </row>
     <row r="9">
@@ -16982,28 +16982,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.4559727185981</v>
+        <v>173.7477272506069</v>
       </c>
       <c r="AB9" t="n">
-        <v>205.8604995225484</v>
+        <v>237.7293056329154</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.2134623752007</v>
+        <v>215.0407543585547</v>
       </c>
       <c r="AD9" t="n">
-        <v>150455.9727185981</v>
+        <v>173747.7272506069</v>
       </c>
       <c r="AE9" t="n">
-        <v>205860.4995225484</v>
+        <v>237729.3056329153</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.037122780618725e-06</v>
+        <v>7.762188409631156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.9306640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>186213.4623752007</v>
+        <v>215040.7543585547</v>
       </c>
     </row>
     <row r="10">
@@ -17088,28 +17088,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.8418277762163</v>
+        <v>170.1335823082252</v>
       </c>
       <c r="AB10" t="n">
-        <v>200.9154669675624</v>
+        <v>232.7842730779293</v>
       </c>
       <c r="AC10" t="n">
-        <v>181.7403767868643</v>
+        <v>210.5676687702182</v>
       </c>
       <c r="AD10" t="n">
-        <v>146841.8277762163</v>
+        <v>170133.5823082252</v>
       </c>
       <c r="AE10" t="n">
-        <v>200915.4669675624</v>
+        <v>232784.2730779293</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.073393996036916e-06</v>
+        <v>7.831927187275953e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.896484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>181740.3767868642</v>
+        <v>210567.6687702182</v>
       </c>
     </row>
     <row r="11">
@@ -17194,28 +17194,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.5437384652713</v>
+        <v>167.8354929972801</v>
       </c>
       <c r="AB11" t="n">
-        <v>197.771119787784</v>
+        <v>229.6399258981509</v>
       </c>
       <c r="AC11" t="n">
-        <v>178.8961216888039</v>
+        <v>207.7234136721578</v>
       </c>
       <c r="AD11" t="n">
-        <v>144543.7384652713</v>
+        <v>167835.4929972801</v>
       </c>
       <c r="AE11" t="n">
-        <v>197771.119787784</v>
+        <v>229639.9258981509</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.098452335720988e-06</v>
+        <v>7.880106934197222e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.8720703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>178896.1216888039</v>
+        <v>207723.4136721578</v>
       </c>
     </row>
     <row r="12">
@@ -17300,28 +17300,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>142.5672079272185</v>
+        <v>165.8589624592273</v>
       </c>
       <c r="AB12" t="n">
-        <v>195.0667435072482</v>
+        <v>226.9355496176152</v>
       </c>
       <c r="AC12" t="n">
-        <v>176.4498472848656</v>
+        <v>205.2771392682196</v>
       </c>
       <c r="AD12" t="n">
-        <v>142567.2079272185</v>
+        <v>165858.9624592273</v>
       </c>
       <c r="AE12" t="n">
-        <v>195066.7435072482</v>
+        <v>226935.5496176152</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.109860217989612e-06</v>
+        <v>7.902040904585505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>176449.8472848656</v>
+        <v>205277.1392682196</v>
       </c>
     </row>
     <row r="13">
@@ -17406,28 +17406,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.7548799548617</v>
+        <v>163.0466344868705</v>
       </c>
       <c r="AB13" t="n">
-        <v>191.2187923043179</v>
+        <v>223.0875984146848</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.9691391441083</v>
+        <v>201.7964311274623</v>
       </c>
       <c r="AD13" t="n">
-        <v>139754.8799548617</v>
+        <v>163046.6344868705</v>
       </c>
       <c r="AE13" t="n">
-        <v>191218.7923043179</v>
+        <v>223087.5984146848</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.135308570742697e-06</v>
+        <v>7.95097053083629e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.837890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>172969.1391441083</v>
+        <v>201796.4311274623</v>
       </c>
     </row>
     <row r="14">
@@ -17512,28 +17512,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>139.3908817082209</v>
+        <v>162.6826362402298</v>
       </c>
       <c r="AB14" t="n">
-        <v>190.720753844795</v>
+        <v>222.589559955162</v>
       </c>
       <c r="AC14" t="n">
-        <v>172.5186327761608</v>
+        <v>201.3459247595148</v>
       </c>
       <c r="AD14" t="n">
-        <v>139390.8817082209</v>
+        <v>162682.6362402298</v>
       </c>
       <c r="AE14" t="n">
-        <v>190720.753844795</v>
+        <v>222589.559955162</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.132090962923341e-06</v>
+        <v>7.9447840263678e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>172518.6327761608</v>
+        <v>201345.9247595148</v>
       </c>
     </row>
     <row r="15">
@@ -17618,28 +17618,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>139.0232753250547</v>
+        <v>162.3150298570635</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.2177785736982</v>
+        <v>222.0865846840651</v>
       </c>
       <c r="AC15" t="n">
-        <v>172.0636607590071</v>
+        <v>200.890952742361</v>
       </c>
       <c r="AD15" t="n">
-        <v>139023.2753250547</v>
+        <v>162315.0298570635</v>
       </c>
       <c r="AE15" t="n">
-        <v>190217.7785736982</v>
+        <v>222086.5846840651</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.145643917071536e-06</v>
+        <v>7.97084233306841e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH15" t="n">
-        <v>172063.6607590071</v>
+        <v>200890.952742361</v>
       </c>
     </row>
   </sheetData>
@@ -17915,28 +17915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.5278090686026</v>
+        <v>550.8992308260807</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.5807183299218</v>
+        <v>753.7646315750214</v>
       </c>
       <c r="AC2" t="n">
-        <v>621.9589795981124</v>
+        <v>681.8263930528053</v>
       </c>
       <c r="AD2" t="n">
-        <v>502527.8090686026</v>
+        <v>550899.2308260808</v>
       </c>
       <c r="AE2" t="n">
-        <v>687580.7183299217</v>
+        <v>753764.6315750214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.939562555164192e-06</v>
+        <v>3.613257931386499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.897135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>621958.9795981124</v>
+        <v>681826.3930528053</v>
       </c>
     </row>
     <row r="3">
@@ -18021,28 +18021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.7914145442831</v>
+        <v>296.9772149315733</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.2452480873318</v>
+        <v>406.3373271794301</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.623245462872</v>
+        <v>367.557062971445</v>
       </c>
       <c r="AD3" t="n">
-        <v>272791.4145442831</v>
+        <v>296977.2149315733</v>
       </c>
       <c r="AE3" t="n">
-        <v>373245.2480873318</v>
+        <v>406337.3271794301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.925389997803083e-06</v>
+        <v>5.449779685536315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.236002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>337623.245462872</v>
+        <v>367557.062971445</v>
       </c>
     </row>
     <row r="4">
@@ -18127,28 +18127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.791614217428</v>
+        <v>259.9848396809678</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.2015595613613</v>
+        <v>355.7227273731356</v>
       </c>
       <c r="AC4" t="n">
-        <v>276.9781124735036</v>
+        <v>321.7730495326263</v>
       </c>
       <c r="AD4" t="n">
-        <v>223791.614217428</v>
+        <v>259984.8396809678</v>
       </c>
       <c r="AE4" t="n">
-        <v>306201.5595613613</v>
+        <v>355722.7273731356</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.3001455946134e-06</v>
+        <v>6.147920938521954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>276978.1124735036</v>
+        <v>321773.0495326263</v>
       </c>
     </row>
     <row r="5">
@@ -18233,28 +18233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.4027907295171</v>
+        <v>232.5032502622353</v>
       </c>
       <c r="AB5" t="n">
-        <v>285.1458923582347</v>
+        <v>318.1212043281184</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.9319685964221</v>
+        <v>287.7601630730515</v>
       </c>
       <c r="AD5" t="n">
-        <v>208402.7907295171</v>
+        <v>232503.2502622353</v>
       </c>
       <c r="AE5" t="n">
-        <v>285145.8923582347</v>
+        <v>318121.2043281184</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.494487710990422e-06</v>
+        <v>6.509965561177741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.383138020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>257931.9685964221</v>
+        <v>287760.1630730515</v>
       </c>
     </row>
     <row r="6">
@@ -18339,28 +18339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.7300680691094</v>
+        <v>223.8305276018276</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.2794906007505</v>
+        <v>306.2548025706342</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.198079568069</v>
+        <v>277.0262740446984</v>
       </c>
       <c r="AD6" t="n">
-        <v>199730.0680691094</v>
+        <v>223830.5276018276</v>
       </c>
       <c r="AE6" t="n">
-        <v>273279.4906007505</v>
+        <v>306254.8025706342</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.614198690182467e-06</v>
+        <v>6.732978035762807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>247198.079568069</v>
+        <v>277026.2740446985</v>
       </c>
     </row>
     <row r="7">
@@ -18445,28 +18445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.2565532105121</v>
+        <v>218.3570127432303</v>
       </c>
       <c r="AB7" t="n">
-        <v>265.7903860967883</v>
+        <v>298.7656980666719</v>
       </c>
       <c r="AC7" t="n">
-        <v>240.4237246869384</v>
+        <v>270.2519191635677</v>
       </c>
       <c r="AD7" t="n">
-        <v>194256.5532105121</v>
+        <v>218357.0127432303</v>
       </c>
       <c r="AE7" t="n">
-        <v>265790.3860967883</v>
+        <v>298765.6980666718</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.687888703317192e-06</v>
+        <v>6.870256941108803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>240423.7246869384</v>
+        <v>270251.9191635677</v>
       </c>
     </row>
     <row r="8">
@@ -18551,28 +18551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.4836840160681</v>
+        <v>213.5841435487863</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.2599359008254</v>
+        <v>292.2352478707089</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.5165314921316</v>
+        <v>264.344725968761</v>
       </c>
       <c r="AD8" t="n">
-        <v>189483.6840160681</v>
+        <v>213584.1435487863</v>
       </c>
       <c r="AE8" t="n">
-        <v>259259.9359008254</v>
+        <v>292235.2478707089</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.754237948859954e-06</v>
+        <v>6.993860553201942e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.080403645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>234516.5314921316</v>
+        <v>264344.725968761</v>
       </c>
     </row>
     <row r="9">
@@ -18657,28 +18657,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>186.0610036804577</v>
+        <v>210.1614632131759</v>
       </c>
       <c r="AB9" t="n">
-        <v>254.576873667646</v>
+        <v>287.5521856375296</v>
       </c>
       <c r="AC9" t="n">
-        <v>230.2804141457663</v>
+        <v>260.1086086223957</v>
       </c>
       <c r="AD9" t="n">
-        <v>186061.0036804577</v>
+        <v>210161.4632131759</v>
       </c>
       <c r="AE9" t="n">
-        <v>254576.873667646</v>
+        <v>287552.1856375296</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.800070690107222e-06</v>
+        <v>7.079243473896066e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.031575520833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>230280.4141457663</v>
+        <v>260108.6086223957</v>
       </c>
     </row>
     <row r="10">
@@ -18763,28 +18763,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>170.9693250820864</v>
+        <v>207.0772096910513</v>
       </c>
       <c r="AB10" t="n">
-        <v>233.9277732114947</v>
+        <v>283.3321739008987</v>
       </c>
       <c r="AC10" t="n">
-        <v>211.602034855949</v>
+        <v>256.2913488830838</v>
       </c>
       <c r="AD10" t="n">
-        <v>170969.3250820864</v>
+        <v>207077.2096910513</v>
       </c>
       <c r="AE10" t="n">
-        <v>233927.7732114947</v>
+        <v>283332.1739008987</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.83536284199167e-06</v>
+        <v>7.144990076073269e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.994140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>211602.034855949</v>
+        <v>256291.3488830838</v>
       </c>
     </row>
     <row r="11">
@@ -18869,28 +18869,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>168.7950253079595</v>
+        <v>204.9029099169244</v>
       </c>
       <c r="AB11" t="n">
-        <v>230.9528003371997</v>
+        <v>280.3572010266036</v>
       </c>
       <c r="AC11" t="n">
-        <v>208.9109892173751</v>
+        <v>253.6003032445098</v>
       </c>
       <c r="AD11" t="n">
-        <v>168795.0253079595</v>
+        <v>204902.9099169244</v>
       </c>
       <c r="AE11" t="n">
-        <v>230952.8003371997</v>
+        <v>280357.2010266036</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.857102807552489e-06</v>
+        <v>7.185489983014423e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.971354166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>208910.9892173751</v>
+        <v>253600.3032445098</v>
       </c>
     </row>
     <row r="12">
@@ -18975,28 +18975,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>166.5322406249659</v>
+        <v>190.7179515037047</v>
       </c>
       <c r="AB12" t="n">
-        <v>227.8567585069145</v>
+        <v>260.9487151294474</v>
       </c>
       <c r="AC12" t="n">
-        <v>206.1104292740494</v>
+        <v>236.044136001391</v>
       </c>
       <c r="AD12" t="n">
-        <v>166532.2406249659</v>
+        <v>190717.9515037047</v>
       </c>
       <c r="AE12" t="n">
-        <v>227856.7585069145</v>
+        <v>260948.7151294474</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.884960079439946e-06</v>
+        <v>7.237385967666295e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.942057291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>206110.4292740494</v>
+        <v>236044.136001391</v>
       </c>
     </row>
     <row r="13">
@@ -19081,28 +19081,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>163.928420700739</v>
+        <v>188.1141315794777</v>
       </c>
       <c r="AB13" t="n">
-        <v>224.2940972141613</v>
+        <v>257.3860538366941</v>
       </c>
       <c r="AC13" t="n">
-        <v>202.8877833748488</v>
+        <v>232.8214901021904</v>
       </c>
       <c r="AD13" t="n">
-        <v>163928.420700739</v>
+        <v>188114.1315794777</v>
       </c>
       <c r="AE13" t="n">
-        <v>224294.0972141613</v>
+        <v>257386.0538366941</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.907641169051017e-06</v>
+        <v>7.279639117332176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>202887.7833748488</v>
+        <v>232821.4901021904</v>
       </c>
     </row>
     <row r="14">
@@ -19187,28 +19187,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>162.876170925423</v>
+        <v>187.0618818041618</v>
       </c>
       <c r="AB14" t="n">
-        <v>222.8543626495909</v>
+        <v>255.9463192721237</v>
       </c>
       <c r="AC14" t="n">
-        <v>201.5854550564405</v>
+        <v>231.5191617837821</v>
       </c>
       <c r="AD14" t="n">
-        <v>162876.170925423</v>
+        <v>187061.8818041618</v>
       </c>
       <c r="AE14" t="n">
-        <v>222854.3626495909</v>
+        <v>255946.3192721237</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.917052409553536e-06</v>
+        <v>7.297171544579428e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.9111328125</v>
       </c>
       <c r="AH14" t="n">
-        <v>201585.4550564405</v>
+        <v>231519.1617837821</v>
       </c>
     </row>
     <row r="15">
@@ -19293,28 +19293,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>160.3872653655701</v>
+        <v>184.5729762443088</v>
       </c>
       <c r="AB15" t="n">
-        <v>219.448932259838</v>
+        <v>252.5408888823709</v>
       </c>
       <c r="AC15" t="n">
-        <v>198.5050341635329</v>
+        <v>228.4387408908745</v>
       </c>
       <c r="AD15" t="n">
-        <v>160387.2653655701</v>
+        <v>184572.9762443088</v>
       </c>
       <c r="AE15" t="n">
-        <v>219448.932259838</v>
+        <v>252540.8888823709</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.933145630812844e-06</v>
+        <v>7.327151995172232e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.894856770833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>198505.0341635329</v>
+        <v>228438.7408908745</v>
       </c>
     </row>
     <row r="16">
@@ -19399,28 +19399,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>159.1751534638896</v>
+        <v>183.3608643426283</v>
       </c>
       <c r="AB16" t="n">
-        <v>217.7904672813566</v>
+        <v>250.8824239038894</v>
       </c>
       <c r="AC16" t="n">
-        <v>197.004850754927</v>
+        <v>226.9385574822685</v>
       </c>
       <c r="AD16" t="n">
-        <v>159175.1534638896</v>
+        <v>183360.8643426283</v>
       </c>
       <c r="AE16" t="n">
-        <v>217790.4672813566</v>
+        <v>250882.4239038894</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.940392285999784e-06</v>
+        <v>7.340651964152617e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.88671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>197004.850754927</v>
+        <v>226938.5574822685</v>
       </c>
     </row>
     <row r="17">
@@ -19505,28 +19505,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>157.3833232873254</v>
+        <v>181.5690341660641</v>
       </c>
       <c r="AB17" t="n">
-        <v>215.3388061838144</v>
+        <v>248.4307628063471</v>
       </c>
       <c r="AC17" t="n">
-        <v>194.7871727516054</v>
+        <v>224.720879478947</v>
       </c>
       <c r="AD17" t="n">
-        <v>157383.3232873254</v>
+        <v>181569.0341660641</v>
       </c>
       <c r="AE17" t="n">
-        <v>215338.8061838144</v>
+        <v>248430.7628063471</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.956579619664117e-06</v>
+        <v>7.370807739017894e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.8720703125</v>
       </c>
       <c r="AH17" t="n">
-        <v>194787.1727516054</v>
+        <v>224720.879478947</v>
       </c>
     </row>
     <row r="18">
@@ -19611,28 +19611,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>155.3840031650183</v>
+        <v>179.5697140437571</v>
       </c>
       <c r="AB18" t="n">
-        <v>212.6032481886966</v>
+        <v>245.6952048112293</v>
       </c>
       <c r="AC18" t="n">
-        <v>192.312692572161</v>
+        <v>222.2463992995027</v>
       </c>
       <c r="AD18" t="n">
-        <v>155384.0031650183</v>
+        <v>179569.7140437571</v>
       </c>
       <c r="AE18" t="n">
-        <v>212603.2481886966</v>
+        <v>245695.2048112293</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.966743759406838e-06</v>
+        <v>7.389742760444928e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.8623046875</v>
       </c>
       <c r="AH18" t="n">
-        <v>192312.692572161</v>
+        <v>222246.3992995027</v>
       </c>
     </row>
     <row r="19">
@@ -19717,28 +19717,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>154.7096279949128</v>
+        <v>178.8953388736515</v>
       </c>
       <c r="AB19" t="n">
-        <v>211.6805383296258</v>
+        <v>244.7724949521586</v>
       </c>
       <c r="AC19" t="n">
-        <v>191.4780448470083</v>
+        <v>221.4117515743499</v>
       </c>
       <c r="AD19" t="n">
-        <v>154709.6279949128</v>
+        <v>178895.3388736515</v>
       </c>
       <c r="AE19" t="n">
-        <v>211680.5383296258</v>
+        <v>244772.4949521586</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.966367309786737e-06</v>
+        <v>7.389041463355038e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.8623046875</v>
       </c>
       <c r="AH19" t="n">
-        <v>191478.0448470083</v>
+        <v>221411.7515743499</v>
       </c>
     </row>
     <row r="20">
@@ -19823,28 +19823,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>153.9921052881111</v>
+        <v>178.1778161668499</v>
       </c>
       <c r="AB20" t="n">
-        <v>210.6987921073125</v>
+        <v>243.7907487298453</v>
       </c>
       <c r="AC20" t="n">
-        <v>190.5899951062628</v>
+        <v>220.5237018336044</v>
       </c>
       <c r="AD20" t="n">
-        <v>153992.1052881111</v>
+        <v>178177.8161668499</v>
       </c>
       <c r="AE20" t="n">
-        <v>210698.7921073125</v>
+        <v>243790.7487298453</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.978413697629962e-06</v>
+        <v>7.411482970231522e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.850911458333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>190589.9951062628</v>
+        <v>220523.7018336044</v>
       </c>
     </row>
     <row r="21">
@@ -19929,28 +19929,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>154.3073044297791</v>
+        <v>178.4930153085178</v>
       </c>
       <c r="AB21" t="n">
-        <v>211.1300614785471</v>
+        <v>244.22201810108</v>
       </c>
       <c r="AC21" t="n">
-        <v>190.9801047339973</v>
+        <v>220.9138114613389</v>
       </c>
       <c r="AD21" t="n">
-        <v>154307.3044297791</v>
+        <v>178493.0153085178</v>
       </c>
       <c r="AE21" t="n">
-        <v>211130.0614785471</v>
+        <v>244222.0181010799</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.978790147250062e-06</v>
+        <v>7.412184267321411e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.849283854166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>190980.1047339973</v>
+        <v>220913.8114613389</v>
       </c>
     </row>
   </sheetData>
@@ -20226,28 +20226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.725185616212</v>
+        <v>287.0866360835423</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.1579925251256</v>
+        <v>392.8046008580108</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.0257209579339</v>
+        <v>355.3158810568414</v>
       </c>
       <c r="AD2" t="n">
-        <v>253725.185616212</v>
+        <v>287086.6360835423</v>
       </c>
       <c r="AE2" t="n">
-        <v>347157.9925251256</v>
+        <v>392804.6008580108</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.885036247791281e-06</v>
+        <v>5.783047527673924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.743815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>314025.7209579339</v>
+        <v>355315.8810568413</v>
       </c>
     </row>
     <row r="3">
@@ -20332,28 +20332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.7598578890911</v>
+        <v>197.9155735212883</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.4823915414267</v>
+        <v>270.7968191105731</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.531089611939</v>
+        <v>244.952350760462</v>
       </c>
       <c r="AD3" t="n">
-        <v>175759.857889091</v>
+        <v>197915.5735212883</v>
       </c>
       <c r="AE3" t="n">
-        <v>240482.3915414267</v>
+        <v>270796.8191105731</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.686016631803633e-06</v>
+        <v>7.388610588805021e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.495442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217531.089611939</v>
+        <v>244952.350760462</v>
       </c>
     </row>
     <row r="4">
@@ -20438,28 +20438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.3661130838126</v>
+        <v>181.5218287160098</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.0517466578789</v>
+        <v>248.3661742270253</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.241193994462</v>
+        <v>224.662455142985</v>
       </c>
       <c r="AD4" t="n">
-        <v>159366.1130838126</v>
+        <v>181521.8287160098</v>
       </c>
       <c r="AE4" t="n">
-        <v>218051.7466578789</v>
+        <v>248366.1742270253</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.97160834111527e-06</v>
+        <v>7.961078414719947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.173177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197241.193994462</v>
+        <v>224662.455142985</v>
       </c>
     </row>
     <row r="5">
@@ -20544,28 +20544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.88527916677</v>
+        <v>174.0409947989672</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.8161396614864</v>
+        <v>238.1305672306327</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.9824589640372</v>
+        <v>215.4037201125603</v>
       </c>
       <c r="AD5" t="n">
-        <v>151885.27916677</v>
+        <v>174040.9947989672</v>
       </c>
       <c r="AE5" t="n">
-        <v>207816.1396614864</v>
+        <v>238130.5672306328</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.10895708117281e-06</v>
+        <v>8.236393600872974e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.033203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>187982.4589640372</v>
+        <v>215403.7201125603</v>
       </c>
     </row>
     <row r="6">
@@ -20650,28 +20650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.600302167593</v>
+        <v>157.8412691458108</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.5343156887436</v>
+        <v>215.9653879105392</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.8271809985096</v>
+        <v>195.3539543977448</v>
       </c>
       <c r="AD6" t="n">
-        <v>135600.302167593</v>
+        <v>157841.2691458108</v>
       </c>
       <c r="AE6" t="n">
-        <v>185534.3156887436</v>
+        <v>215965.3879105392</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.18949292504643e-06</v>
+        <v>8.397827486897467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.955078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>167827.1809985096</v>
+        <v>195353.9543977448</v>
       </c>
     </row>
     <row r="7">
@@ -20756,28 +20756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.1500893793353</v>
+        <v>153.3910563575531</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.4453382223205</v>
+        <v>209.8764104441161</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.3193269955464</v>
+        <v>189.8461003947816</v>
       </c>
       <c r="AD7" t="n">
-        <v>131150.0893793353</v>
+        <v>153391.0563575531</v>
       </c>
       <c r="AE7" t="n">
-        <v>179445.3382223205</v>
+        <v>209876.4104441161</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.255672822034867e-06</v>
+        <v>8.530484915362602e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.893229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>162319.3269955464</v>
+        <v>189846.1003947816</v>
       </c>
     </row>
     <row r="8">
@@ -20862,28 +20862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.2825971608366</v>
+        <v>149.5235641390544</v>
       </c>
       <c r="AB8" t="n">
-        <v>174.1536647472584</v>
+        <v>204.584736969054</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.5326834100322</v>
+        <v>185.0594568092675</v>
       </c>
       <c r="AD8" t="n">
-        <v>127282.5971608366</v>
+        <v>149523.5641390544</v>
       </c>
       <c r="AE8" t="n">
-        <v>174153.6647472584</v>
+        <v>204584.736969054</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.301082412891547e-06</v>
+        <v>8.621508320124832e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.8525390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>157532.6834100322</v>
+        <v>185059.4568092675</v>
       </c>
     </row>
     <row r="9">
@@ -20968,28 +20968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>125.1308770736486</v>
+        <v>147.3718440518664</v>
       </c>
       <c r="AB9" t="n">
-        <v>171.2095863967786</v>
+        <v>201.6406586185742</v>
       </c>
       <c r="AC9" t="n">
-        <v>154.8695837652814</v>
+        <v>182.3963571645166</v>
       </c>
       <c r="AD9" t="n">
-        <v>125130.8770736486</v>
+        <v>147371.8440518664</v>
       </c>
       <c r="AE9" t="n">
-        <v>171209.5863967786</v>
+        <v>201640.6586185742</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.317983740430133e-06</v>
+        <v>8.655386986471311e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.837890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>154869.5837652814</v>
+        <v>182396.3571645166</v>
       </c>
     </row>
     <row r="10">
@@ -21074,28 +21074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.6304686001277</v>
+        <v>146.8714355783455</v>
       </c>
       <c r="AB10" t="n">
-        <v>170.5249054468439</v>
+        <v>200.9559776686396</v>
       </c>
       <c r="AC10" t="n">
-        <v>154.2502478042525</v>
+        <v>181.7770212034877</v>
       </c>
       <c r="AD10" t="n">
-        <v>124630.4686001277</v>
+        <v>146871.4355783455</v>
       </c>
       <c r="AE10" t="n">
-        <v>170524.9054468439</v>
+        <v>200955.9776686396</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.329488860983507e-06</v>
+        <v>8.678448970189098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>154250.2478042525</v>
+        <v>181777.0212034878</v>
       </c>
     </row>
   </sheetData>
@@ -21371,28 +21371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.7615079627816</v>
+        <v>218.0520954850764</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.217775699646</v>
+        <v>298.348496822066</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.5240090364719</v>
+        <v>269.8745350202013</v>
       </c>
       <c r="AD2" t="n">
-        <v>196761.5079627816</v>
+        <v>218052.0954850765</v>
       </c>
       <c r="AE2" t="n">
-        <v>269217.775699646</v>
+        <v>298348.496822066</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.368074860940615e-06</v>
+        <v>7.046223241473656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.125325520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>243524.0090364719</v>
+        <v>269874.5350202013</v>
       </c>
     </row>
     <row r="3">
@@ -21477,28 +21477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.9930095880237</v>
+        <v>167.1982562557469</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.7540764752622</v>
+        <v>228.7680304754846</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.689827773127</v>
+        <v>206.9347307249176</v>
       </c>
       <c r="AD3" t="n">
-        <v>145993.0095880237</v>
+        <v>167198.2562557469</v>
       </c>
       <c r="AE3" t="n">
-        <v>199754.0764752622</v>
+        <v>228768.0304754846</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065510395957949e-06</v>
+        <v>8.505301996895477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.246419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>180689.827773127</v>
+        <v>206934.7307249176</v>
       </c>
     </row>
     <row r="4">
@@ -21583,28 +21583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.7164237575196</v>
+        <v>155.9216704252429</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.3249542541184</v>
+        <v>213.3389082543408</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.7332393218552</v>
+        <v>192.9781422736459</v>
       </c>
       <c r="AD4" t="n">
-        <v>134716.4237575196</v>
+        <v>155921.6704252429</v>
       </c>
       <c r="AE4" t="n">
-        <v>184324.9542541184</v>
+        <v>213338.9082543408</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295761695611634e-06</v>
+        <v>8.987002115207637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0185546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>166733.2393218552</v>
+        <v>192978.1422736458</v>
       </c>
     </row>
     <row r="5">
@@ -21689,28 +21689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.2579601674792</v>
+        <v>138.548458181223</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.4375141571823</v>
+        <v>189.568112810054</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.1255829815304</v>
+        <v>171.4759981840332</v>
       </c>
       <c r="AD5" t="n">
-        <v>117257.9601674792</v>
+        <v>138548.458181223</v>
       </c>
       <c r="AE5" t="n">
-        <v>160437.5141571823</v>
+        <v>189568.112810054</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.417622010352346e-06</v>
+        <v>9.241941514535447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.907877604166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>145125.5829815304</v>
+        <v>171475.9981840332</v>
       </c>
     </row>
     <row r="6">
@@ -21795,28 +21795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.5147212159331</v>
+        <v>134.8052192296769</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.315849483632</v>
+        <v>184.4464481365037</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.4927227961206</v>
+        <v>166.8431379986234</v>
       </c>
       <c r="AD6" t="n">
-        <v>113514.7212159331</v>
+        <v>134805.2192296769</v>
       </c>
       <c r="AE6" t="n">
-        <v>155315.849483632</v>
+        <v>184446.4481365037</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.478393081149932e-06</v>
+        <v>9.369078395140177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>140492.7227961206</v>
+        <v>166843.1379986234</v>
       </c>
     </row>
     <row r="7">
@@ -21901,28 +21901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.0074583690302</v>
+        <v>134.297956382774</v>
       </c>
       <c r="AB7" t="n">
-        <v>154.6217900776424</v>
+        <v>183.752388730514</v>
       </c>
       <c r="AC7" t="n">
-        <v>139.8649034457199</v>
+        <v>166.2153186482227</v>
       </c>
       <c r="AD7" t="n">
-        <v>113007.4583690302</v>
+        <v>134297.956382774</v>
       </c>
       <c r="AE7" t="n">
-        <v>154621.7900776424</v>
+        <v>183752.388730514</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.491438180116954e-06</v>
+        <v>9.396369557992501e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.8427734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>139864.9034457199</v>
+        <v>166215.3186482227</v>
       </c>
     </row>
   </sheetData>
@@ -40955,28 +40955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.9808915243593</v>
+        <v>182.6917062784692</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.9469607072595</v>
+        <v>249.966852319337</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.1007946328103</v>
+        <v>226.1103667647328</v>
       </c>
       <c r="AD2" t="n">
-        <v>151980.8915243593</v>
+        <v>182691.7062784692</v>
       </c>
       <c r="AE2" t="n">
-        <v>207946.9607072595</v>
+        <v>249966.852319337</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.765309777592527e-06</v>
+        <v>8.185240385317829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.742838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>188100.7946328103</v>
+        <v>226110.3667647328</v>
       </c>
     </row>
     <row r="3">
@@ -41061,28 +41061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.0014815416364</v>
+        <v>145.4470006014035</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.0325417213517</v>
+        <v>199.0070028915525</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.7094359851934</v>
+        <v>180.014053843722</v>
       </c>
       <c r="AD3" t="n">
-        <v>125001.4815416364</v>
+        <v>145447.0006014035</v>
       </c>
       <c r="AE3" t="n">
-        <v>171032.5417213517</v>
+        <v>199007.0028915525</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.37113846616671e-06</v>
+        <v>9.502224575519608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.085286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154709.4359851934</v>
+        <v>180014.053843722</v>
       </c>
     </row>
     <row r="4">
@@ -41167,28 +41167,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.9664192653171</v>
+        <v>126.4971896711048</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.9879297472249</v>
+        <v>173.0790355700749</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.1504852240264</v>
+        <v>156.5606153332673</v>
       </c>
       <c r="AD4" t="n">
-        <v>105966.4192653171</v>
+        <v>126497.1896711048</v>
       </c>
       <c r="AE4" t="n">
-        <v>144987.9297472248</v>
+        <v>173079.0355700749</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.56324386886381e-06</v>
+        <v>9.919834013593369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.912760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>131150.4852240264</v>
+        <v>156560.6153332673</v>
       </c>
     </row>
     <row r="5">
@@ -41273,28 +41273,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.1736260378946</v>
+        <v>124.7043964436823</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.5349509610114</v>
+        <v>170.6260567838615</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.931615290391</v>
+        <v>154.3417453996319</v>
       </c>
       <c r="AD5" t="n">
-        <v>104173.6260378945</v>
+        <v>124704.3964436823</v>
       </c>
       <c r="AE5" t="n">
-        <v>142534.9509610114</v>
+        <v>170626.0567838615</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.603727531682331e-06</v>
+        <v>1.000783965759635e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.878580729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>128931.615290391</v>
+        <v>154341.7453996319</v>
       </c>
     </row>
   </sheetData>
@@ -41570,28 +41570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.55881050415928</v>
+        <v>118.4983138402196</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2207567564654</v>
+        <v>162.134620772767</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2200389186977</v>
+        <v>146.6607201236283</v>
       </c>
       <c r="AD2" t="n">
-        <v>99558.81050415928</v>
+        <v>118498.3138402196</v>
       </c>
       <c r="AE2" t="n">
-        <v>136220.7567564654</v>
+        <v>162134.620772767</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.617144308748741e-06</v>
+        <v>1.098200223283595e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.150390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>123220.0389186977</v>
+        <v>146660.7201236283</v>
       </c>
     </row>
     <row r="3">
@@ -41676,28 +41676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.92159105421301</v>
+        <v>115.8610943902733</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.6123967591399</v>
+        <v>158.5262607754415</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.9560557351507</v>
+        <v>143.3967369400814</v>
       </c>
       <c r="AD3" t="n">
-        <v>96921.59105421302</v>
+        <v>115861.0943902733</v>
       </c>
       <c r="AE3" t="n">
-        <v>132612.3967591399</v>
+        <v>158526.2607754415</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.729952884310621e-06</v>
+        <v>1.125032047152651e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.052734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>119956.0557351507</v>
+        <v>143396.7369400813</v>
       </c>
     </row>
   </sheetData>
@@ -41973,28 +41973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.0495899816704</v>
+        <v>367.5341075391105</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.6931421238446</v>
+        <v>502.8763803954774</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.202428208886</v>
+        <v>454.8825644419649</v>
       </c>
       <c r="AD2" t="n">
-        <v>333049.5899816704</v>
+        <v>367534.1075391105</v>
       </c>
       <c r="AE2" t="n">
-        <v>455693.1421238446</v>
+        <v>502876.3803954774</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488799878162324e-06</v>
+        <v>4.829710775251517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.4404296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>412202.428208886</v>
+        <v>454882.5644419649</v>
       </c>
     </row>
     <row r="3">
@@ -42079,28 +42079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.8464152363631</v>
+        <v>240.3308432852517</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.6481466291759</v>
+        <v>328.831262431236</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.7680428106266</v>
+        <v>297.4480682624721</v>
       </c>
       <c r="AD3" t="n">
-        <v>205846.4152363631</v>
+        <v>240330.8432852517</v>
       </c>
       <c r="AE3" t="n">
-        <v>281648.1466291759</v>
+        <v>328831.262431236</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.369673336404797e-06</v>
+        <v>6.539114600860858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.755859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>254768.0428106266</v>
+        <v>297448.0682624721</v>
       </c>
     </row>
     <row r="4">
@@ -42185,28 +42185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.531875212853</v>
+        <v>206.4931364691393</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.1164085209978</v>
+        <v>282.533019151187</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.1502109359197</v>
+        <v>255.5684643410636</v>
       </c>
       <c r="AD4" t="n">
-        <v>183531.875212853</v>
+        <v>206493.1364691393</v>
       </c>
       <c r="AE4" t="n">
-        <v>251116.4085209978</v>
+        <v>282533.019151187</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.686768086046021e-06</v>
+        <v>7.154461757759914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.347330729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>227150.2109359197</v>
+        <v>255568.4643410636</v>
       </c>
     </row>
     <row r="5">
@@ -42291,28 +42291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.5032721728918</v>
+        <v>196.4645334291781</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.3948314109889</v>
+        <v>268.8114420411781</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.7382018869313</v>
+        <v>243.1564552920752</v>
       </c>
       <c r="AD5" t="n">
-        <v>173503.2721728918</v>
+        <v>196464.5334291781</v>
       </c>
       <c r="AE5" t="n">
-        <v>237394.8314109889</v>
+        <v>268811.4420411781</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.849845385861508e-06</v>
+        <v>7.470926009879431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.163411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>214738.2018869313</v>
+        <v>243156.4552920752</v>
       </c>
     </row>
     <row r="6">
@@ -42397,28 +42397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.0957329809514</v>
+        <v>190.0569942372377</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.6277536079019</v>
+        <v>260.0443642380911</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.8078416846971</v>
+        <v>235.226095089841</v>
       </c>
       <c r="AD6" t="n">
-        <v>167095.7329809514</v>
+        <v>190056.9942372377</v>
       </c>
       <c r="AE6" t="n">
-        <v>228627.7536079019</v>
+        <v>260044.3642380911</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.951473268355218e-06</v>
+        <v>7.668142862649563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>206807.8416846971</v>
+        <v>235226.0950898411</v>
       </c>
     </row>
     <row r="7">
@@ -42503,28 +42503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.3586346514385</v>
+        <v>185.7577218457555</v>
       </c>
       <c r="AB7" t="n">
-        <v>207.095561401694</v>
+        <v>254.1619100815564</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.3306516820212</v>
+        <v>229.9050541019279</v>
       </c>
       <c r="AD7" t="n">
-        <v>151358.6346514384</v>
+        <v>185757.7218457555</v>
       </c>
       <c r="AE7" t="n">
-        <v>207095.561401694</v>
+        <v>254161.9100815564</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.013808975349906e-06</v>
+        <v>7.789110176412638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.992513020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>187330.6516820212</v>
+        <v>229905.0541019279</v>
       </c>
     </row>
     <row r="8">
@@ -42609,28 +42609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.1536701529321</v>
+        <v>170.2001827552389</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.3421434648993</v>
+        <v>232.8753987477378</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.1263318781397</v>
+        <v>210.6500975339959</v>
       </c>
       <c r="AD8" t="n">
-        <v>147153.6701529321</v>
+        <v>170200.1827552389</v>
       </c>
       <c r="AE8" t="n">
-        <v>201342.1434648993</v>
+        <v>232875.3987477378</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.07191018724069e-06</v>
+        <v>7.901860121310292e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.935546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>182126.3318781397</v>
+        <v>210650.0975339959</v>
       </c>
     </row>
     <row r="9">
@@ -42715,28 +42715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>144.1972253555117</v>
+        <v>167.2437379578186</v>
       </c>
       <c r="AB9" t="n">
-        <v>197.2970052639316</v>
+        <v>228.8302605467701</v>
       </c>
       <c r="AC9" t="n">
-        <v>178.4672559896839</v>
+        <v>206.9910216455401</v>
       </c>
       <c r="AD9" t="n">
-        <v>144197.2253555117</v>
+        <v>167243.7379578186</v>
       </c>
       <c r="AE9" t="n">
-        <v>197297.0052639316</v>
+        <v>228830.2605467701</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.106180054593219e-06</v>
+        <v>7.968363478639755e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.902994791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>178467.2559896839</v>
+        <v>206991.0216455401</v>
       </c>
     </row>
     <row r="10">
@@ -42821,28 +42821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.8277314751271</v>
+        <v>164.874244077434</v>
       </c>
       <c r="AB10" t="n">
-        <v>194.0549592020987</v>
+        <v>225.5882144849372</v>
       </c>
       <c r="AC10" t="n">
-        <v>175.5346262537511</v>
+        <v>204.0583919096073</v>
       </c>
       <c r="AD10" t="n">
-        <v>141827.7314751271</v>
+        <v>164874.2440774339</v>
       </c>
       <c r="AE10" t="n">
-        <v>194054.9592020987</v>
+        <v>225588.2144849372</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.127352530112743e-06</v>
+        <v>8.009450322966866e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.883463541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>175534.6262537511</v>
+        <v>204058.3919096072</v>
       </c>
     </row>
     <row r="11">
@@ -42927,28 +42927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>138.5764480242112</v>
+        <v>161.6229606265181</v>
       </c>
       <c r="AB11" t="n">
-        <v>189.6064097480552</v>
+        <v>221.1396650308937</v>
       </c>
       <c r="AC11" t="n">
-        <v>171.5106401160217</v>
+        <v>200.0344057718779</v>
       </c>
       <c r="AD11" t="n">
-        <v>138576.4480242112</v>
+        <v>161622.9606265181</v>
       </c>
       <c r="AE11" t="n">
-        <v>189606.4097480552</v>
+        <v>221139.6650308937</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.163296500180769e-06</v>
+        <v>8.079202407522194e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.849283854166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>171510.6401160217</v>
+        <v>200034.4057718778</v>
       </c>
     </row>
     <row r="12">
@@ -43033,28 +43033,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>136.143409114549</v>
+        <v>159.1899217168558</v>
       </c>
       <c r="AB12" t="n">
-        <v>186.2774185737558</v>
+        <v>217.8106738565943</v>
       </c>
       <c r="AC12" t="n">
-        <v>168.499363187128</v>
+        <v>197.0231288429841</v>
       </c>
       <c r="AD12" t="n">
-        <v>136143.409114549</v>
+        <v>159189.9217168558</v>
       </c>
       <c r="AE12" t="n">
-        <v>186277.4185737558</v>
+        <v>217810.6738565943</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.176295415383454e-06</v>
+        <v>8.104427818923026e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.837890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>168499.363187128</v>
+        <v>197023.1288429841</v>
       </c>
     </row>
     <row r="13">
@@ -43139,28 +43139,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.4999711644991</v>
+        <v>158.5464837668059</v>
       </c>
       <c r="AB13" t="n">
-        <v>185.3970383840191</v>
+        <v>216.9302936668576</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.7030052470781</v>
+        <v>196.2267709029342</v>
       </c>
       <c r="AD13" t="n">
-        <v>135499.9711644991</v>
+        <v>158546.483766806</v>
       </c>
       <c r="AE13" t="n">
-        <v>185397.0383840191</v>
+        <v>216930.2936668576</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.185355265373202e-06</v>
+        <v>8.122009166262997e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.829752604166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>167703.0052470781</v>
+        <v>196226.7709029343</v>
       </c>
     </row>
     <row r="14">
@@ -43245,28 +43245,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.9234309814302</v>
+        <v>158.9699435837371</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.9764347872726</v>
+        <v>217.5096900701111</v>
       </c>
       <c r="AC14" t="n">
-        <v>168.2271048707932</v>
+        <v>196.7508705266494</v>
       </c>
       <c r="AD14" t="n">
-        <v>135923.4309814302</v>
+        <v>158969.9435837371</v>
       </c>
       <c r="AE14" t="n">
-        <v>185976.4347872726</v>
+        <v>217509.6900701111</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.184567452330615e-06</v>
+        <v>8.120480353450826e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.829752604166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>168227.1048707932</v>
+        <v>196750.8705266493</v>
       </c>
     </row>
   </sheetData>
@@ -43542,28 +43542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.7895910967012</v>
+        <v>514.7369139131991</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.6821118418643</v>
+        <v>704.28575420599</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.7271874836499</v>
+        <v>637.0697102958337</v>
       </c>
       <c r="AD2" t="n">
-        <v>466789.5910967012</v>
+        <v>514736.9139131991</v>
       </c>
       <c r="AE2" t="n">
-        <v>638682.1118418643</v>
+        <v>704285.75420599</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035597249917694e-06</v>
+        <v>3.819578861616603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.587890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>577727.1874836499</v>
+        <v>637069.7102958338</v>
       </c>
     </row>
     <row r="3">
@@ -43648,28 +43648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.7568318887567</v>
+        <v>284.7305828055567</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.7790011697249</v>
+        <v>389.5809448213361</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.7285140405587</v>
+        <v>352.3998862278772</v>
       </c>
       <c r="AD3" t="n">
-        <v>260756.8318887567</v>
+        <v>284730.5828055567</v>
       </c>
       <c r="AE3" t="n">
-        <v>356779.001169725</v>
+        <v>389580.9448213361</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.009886418949672e-06</v>
+        <v>5.647727487425082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.1318359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>322728.5140405587</v>
+        <v>352399.8862278772</v>
       </c>
     </row>
     <row r="4">
@@ -43754,28 +43754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.2585703854189</v>
+        <v>239.3175726482391</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.526272539087</v>
+        <v>327.4448608433306</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.4170984582631</v>
+        <v>296.193982896289</v>
       </c>
       <c r="AD4" t="n">
-        <v>215258.5703854189</v>
+        <v>239317.5726482391</v>
       </c>
       <c r="AE4" t="n">
-        <v>294526.272539087</v>
+        <v>327444.8608433306</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.375327890649502e-06</v>
+        <v>6.333439025166238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.5751953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>266417.0984582631</v>
+        <v>296193.982896289</v>
       </c>
     </row>
     <row r="5">
@@ -43860,28 +43860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.5930899351216</v>
+        <v>225.4814999973496</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.8285593085511</v>
+        <v>308.5137358379478</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.5038687360383</v>
+        <v>279.0696178914131</v>
       </c>
       <c r="AD5" t="n">
-        <v>201593.0899351216</v>
+        <v>225481.4999973496</v>
       </c>
       <c r="AE5" t="n">
-        <v>275828.5593085511</v>
+        <v>308513.7358379478</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55800117889208e-06</v>
+        <v>6.676205763715115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.3408203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>249503.8687360383</v>
+        <v>279069.6178914132</v>
       </c>
     </row>
     <row r="6">
@@ -43966,28 +43966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.4757844615595</v>
+        <v>217.3641945237875</v>
       </c>
       <c r="AB6" t="n">
-        <v>264.7221038493857</v>
+        <v>297.4072803787824</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.4573977978839</v>
+        <v>269.0231469532588</v>
       </c>
       <c r="AD6" t="n">
-        <v>193475.7844615595</v>
+        <v>217364.1945237875</v>
       </c>
       <c r="AE6" t="n">
-        <v>264722.1038493857</v>
+        <v>297407.2803787824</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.671211169995143e-06</v>
+        <v>6.888632111293718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.207356770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>239457.397797884</v>
+        <v>269023.1469532588</v>
       </c>
     </row>
     <row r="7">
@@ -44072,28 +44072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>187.6260045595917</v>
+        <v>211.5144146218198</v>
       </c>
       <c r="AB7" t="n">
-        <v>256.7181769134421</v>
+        <v>289.4033534428387</v>
       </c>
       <c r="AC7" t="n">
-        <v>232.2173544151222</v>
+        <v>261.783103570497</v>
       </c>
       <c r="AD7" t="n">
-        <v>187626.0045595917</v>
+        <v>211514.4146218197</v>
       </c>
       <c r="AE7" t="n">
-        <v>256718.176913442</v>
+        <v>289403.3534428388</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.755667911052752e-06</v>
+        <v>7.047106083921511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.112955729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>232217.3544151222</v>
+        <v>261783.103570497</v>
       </c>
     </row>
     <row r="8">
@@ -44178,28 +44178,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.5540145703825</v>
+        <v>207.4424246326105</v>
       </c>
       <c r="AB8" t="n">
-        <v>251.1467005666891</v>
+        <v>283.8318770960858</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.1776119512854</v>
+        <v>256.7433611066602</v>
       </c>
       <c r="AD8" t="n">
-        <v>183554.0145703825</v>
+        <v>207442.4246326105</v>
       </c>
       <c r="AE8" t="n">
-        <v>251146.7005666891</v>
+        <v>283831.8770960858</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.811466297279575e-06</v>
+        <v>7.151805742241895e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.052734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>227177.6119512854</v>
+        <v>256743.3611066602</v>
       </c>
     </row>
     <row r="9">
@@ -44284,28 +44284,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.0082678868063</v>
+        <v>203.8966779490343</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.295253526919</v>
+        <v>278.9804300563158</v>
       </c>
       <c r="AC9" t="n">
-        <v>222.7891802079407</v>
+        <v>252.3549293633156</v>
       </c>
       <c r="AD9" t="n">
-        <v>180008.2678868063</v>
+        <v>203896.6779490343</v>
       </c>
       <c r="AE9" t="n">
-        <v>246295.253526919</v>
+        <v>278980.4300563157</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.858439428541953e-06</v>
+        <v>7.239945760725892e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.002278645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>222789.1802079407</v>
+        <v>252354.9293633156</v>
       </c>
     </row>
     <row r="10">
@@ -44390,28 +44390,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.0758594420831</v>
+        <v>200.8656698453128</v>
       </c>
       <c r="AB10" t="n">
-        <v>225.8640735214921</v>
+        <v>274.8332710501658</v>
       </c>
       <c r="AC10" t="n">
-        <v>204.3079233468841</v>
+        <v>248.6035693921371</v>
       </c>
       <c r="AD10" t="n">
-        <v>165075.8594420831</v>
+        <v>200865.6698453128</v>
       </c>
       <c r="AE10" t="n">
-        <v>225864.0735214922</v>
+        <v>274833.2710501658</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.891842544106311e-06</v>
+        <v>7.302623107203402e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.968098958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>204307.9233468841</v>
+        <v>248603.5693921371</v>
       </c>
     </row>
     <row r="11">
@@ -44496,28 +44496,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>163.1466942432727</v>
+        <v>187.1203556515213</v>
       </c>
       <c r="AB11" t="n">
-        <v>223.2245045877192</v>
+        <v>256.0263257697651</v>
       </c>
       <c r="AC11" t="n">
-        <v>201.9202711674913</v>
+        <v>231.5915325735783</v>
       </c>
       <c r="AD11" t="n">
-        <v>163146.6942432727</v>
+        <v>187120.3556515213</v>
       </c>
       <c r="AE11" t="n">
-        <v>223224.5045877192</v>
+        <v>256026.3257697651</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.913668443480748e-06</v>
+        <v>7.343577055185864e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.946940104166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>201920.2711674913</v>
+        <v>231591.5325735784</v>
       </c>
     </row>
     <row r="12">
@@ -44602,28 +44602,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>160.5365276154038</v>
+        <v>184.5101890236524</v>
       </c>
       <c r="AB12" t="n">
-        <v>219.6531594550462</v>
+        <v>252.4549806370921</v>
       </c>
       <c r="AC12" t="n">
-        <v>198.6897702018651</v>
+        <v>228.3610316079522</v>
       </c>
       <c r="AD12" t="n">
-        <v>160536.5276154038</v>
+        <v>184510.1890236524</v>
       </c>
       <c r="AE12" t="n">
-        <v>219653.1594550462</v>
+        <v>252454.9806370921</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.93957483708606e-06</v>
+        <v>7.392187610834614e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.9208984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>198689.7702018651</v>
+        <v>228361.0316079522</v>
       </c>
     </row>
     <row r="13">
@@ -44708,28 +44708,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>158.7636164611112</v>
+        <v>182.7372778693598</v>
       </c>
       <c r="AB13" t="n">
-        <v>217.2273841984242</v>
+        <v>250.0292053804702</v>
       </c>
       <c r="AC13" t="n">
-        <v>196.4955075311374</v>
+        <v>226.1667689372245</v>
       </c>
       <c r="AD13" t="n">
-        <v>158763.6164611111</v>
+        <v>182737.2778693598</v>
       </c>
       <c r="AE13" t="n">
-        <v>217227.3841984242</v>
+        <v>250029.2053804702</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.950867367631965e-06</v>
+        <v>7.413376827399454e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.909505208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>196495.5075311374</v>
+        <v>226166.7689372245</v>
       </c>
     </row>
     <row r="14">
@@ -44814,28 +44814,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>156.222315879467</v>
+        <v>180.1959772877156</v>
       </c>
       <c r="AB14" t="n">
-        <v>213.7502646283514</v>
+        <v>246.5520858103973</v>
       </c>
       <c r="AC14" t="n">
-        <v>193.3502393726633</v>
+        <v>223.0215007787503</v>
       </c>
       <c r="AD14" t="n">
-        <v>156222.315879467</v>
+        <v>180195.9772877156</v>
       </c>
       <c r="AE14" t="n">
-        <v>213750.2646283514</v>
+        <v>246552.0858103973</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.976489075593261e-06</v>
+        <v>7.461453201117998e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.883463541666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>193350.2393726633</v>
+        <v>223021.5007787503</v>
       </c>
     </row>
     <row r="15">
@@ -44920,28 +44920,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>154.6606205790953</v>
+        <v>178.6342819873439</v>
       </c>
       <c r="AB15" t="n">
-        <v>211.6134842212498</v>
+        <v>244.4153054032958</v>
       </c>
       <c r="AC15" t="n">
-        <v>191.4173902886247</v>
+        <v>221.0886516947117</v>
       </c>
       <c r="AD15" t="n">
-        <v>154660.6205790953</v>
+        <v>178634.2819873439</v>
       </c>
       <c r="AE15" t="n">
-        <v>211613.4842212498</v>
+        <v>244415.3054032958</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.987117339636465e-06</v>
+        <v>7.481395993179022e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.873697916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>191417.3902886247</v>
+        <v>221088.6516947117</v>
       </c>
     </row>
     <row r="16">
@@ -45026,28 +45026,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>152.6201334566291</v>
+        <v>176.5937948648777</v>
       </c>
       <c r="AB16" t="n">
-        <v>208.8215997203544</v>
+        <v>241.6234209024003</v>
       </c>
       <c r="AC16" t="n">
-        <v>188.8919593260593</v>
+        <v>218.5632207321464</v>
       </c>
       <c r="AD16" t="n">
-        <v>152620.1334566291</v>
+        <v>176593.7948648777</v>
       </c>
       <c r="AE16" t="n">
-        <v>208821.5997203544</v>
+        <v>241623.4209024003</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.001351621837185e-06</v>
+        <v>7.508105089689324e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>188891.9593260593</v>
+        <v>218563.2207321464</v>
       </c>
     </row>
     <row r="17">
@@ -45132,28 +45132,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>150.9826147580957</v>
+        <v>174.9562761663443</v>
       </c>
       <c r="AB17" t="n">
-        <v>206.5810743947957</v>
+        <v>239.3828955768416</v>
       </c>
       <c r="AC17" t="n">
-        <v>186.8652665929742</v>
+        <v>216.5365279990612</v>
       </c>
       <c r="AD17" t="n">
-        <v>150982.6147580957</v>
+        <v>174956.2761663443</v>
       </c>
       <c r="AE17" t="n">
-        <v>206581.0743947957</v>
+        <v>239382.8955768416</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.011410514592362e-06</v>
+        <v>7.526979517889938e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.850911458333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>186865.2665929742</v>
+        <v>216536.5279990612</v>
       </c>
     </row>
     <row r="18">
@@ -45238,28 +45238,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>150.5763754006797</v>
+        <v>174.5500368089283</v>
       </c>
       <c r="AB18" t="n">
-        <v>206.0252397839639</v>
+        <v>238.8270609660098</v>
       </c>
       <c r="AC18" t="n">
-        <v>186.3624800572811</v>
+        <v>216.0337414633682</v>
       </c>
       <c r="AD18" t="n">
-        <v>150576.3754006797</v>
+        <v>174550.0368089283</v>
       </c>
       <c r="AE18" t="n">
-        <v>206025.2397839639</v>
+        <v>238827.0609660098</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.011695200236376e-06</v>
+        <v>7.527513699820144e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.849283854166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>186362.4800572812</v>
+        <v>216033.7414633682</v>
       </c>
     </row>
     <row r="19">
@@ -45344,28 +45344,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>150.4194845884778</v>
+        <v>174.3931459967264</v>
       </c>
       <c r="AB19" t="n">
-        <v>205.8105748531752</v>
+        <v>238.6123960352211</v>
       </c>
       <c r="AC19" t="n">
-        <v>186.1683024462027</v>
+        <v>215.8395638522898</v>
       </c>
       <c r="AD19" t="n">
-        <v>150419.4845884778</v>
+        <v>174393.1459967264</v>
       </c>
       <c r="AE19" t="n">
-        <v>205810.5748531751</v>
+        <v>238612.3960352211</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.011220724163019e-06</v>
+        <v>7.526623396603135e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.850911458333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>186168.3024462028</v>
+        <v>215839.5638522898</v>
       </c>
     </row>
     <row r="20">
@@ -45450,28 +45450,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>150.9576916351816</v>
+        <v>174.9313530434302</v>
       </c>
       <c r="AB20" t="n">
-        <v>206.5469734784941</v>
+        <v>239.34879466054</v>
       </c>
       <c r="AC20" t="n">
-        <v>186.8344202202635</v>
+        <v>216.5056816263505</v>
       </c>
       <c r="AD20" t="n">
-        <v>150957.6916351816</v>
+        <v>174931.3530434302</v>
       </c>
       <c r="AE20" t="n">
-        <v>206546.9734784941</v>
+        <v>239348.79466054</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.011505409807034e-06</v>
+        <v>7.52715757853334e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.850911458333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>186834.4202202635</v>
+        <v>216505.6816263505</v>
       </c>
     </row>
   </sheetData>
@@ -45747,28 +45747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.75563119808497</v>
+        <v>105.9907657785309</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.0711261103822</v>
+        <v>145.0212417206964</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.6117063553225</v>
+        <v>131.1806179495035</v>
       </c>
       <c r="AD2" t="n">
-        <v>87755.63119808497</v>
+        <v>105990.7657785309</v>
       </c>
       <c r="AE2" t="n">
-        <v>120071.1261103822</v>
+        <v>145021.2417206964</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.65364132633129e-06</v>
+        <v>1.163840379449376e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>108611.7063553225</v>
+        <v>131180.6179495035</v>
       </c>
     </row>
   </sheetData>
@@ -46044,28 +46044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.7180574178567</v>
+        <v>246.9893061402929</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.7867188511196</v>
+        <v>337.9416650601481</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.748126736305</v>
+        <v>305.688986851014</v>
       </c>
       <c r="AD2" t="n">
-        <v>214718.0574178567</v>
+        <v>246989.3061402928</v>
       </c>
       <c r="AE2" t="n">
-        <v>293786.7188511196</v>
+        <v>337941.6650601481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.196180986377705e-06</v>
+        <v>6.581842634402608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.322265625000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>265748.126736305</v>
+        <v>305688.986851014</v>
       </c>
     </row>
     <row r="3">
@@ -46150,28 +46150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.1535814973033</v>
+        <v>177.6962240999683</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.6562192143281</v>
+        <v>243.1318132175957</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.2651695209608</v>
+        <v>219.927654201822</v>
       </c>
       <c r="AD3" t="n">
-        <v>156153.5814973033</v>
+        <v>177696.2240999683</v>
       </c>
       <c r="AE3" t="n">
-        <v>213656.2192143281</v>
+        <v>243131.8132175957</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.925464582053058e-06</v>
+        <v>8.083644279254527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.332682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>193265.1695209608</v>
+        <v>219927.6542018219</v>
       </c>
     </row>
     <row r="4">
@@ -46256,28 +46256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.8531544405493</v>
+        <v>165.3957970432143</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.8262322587429</v>
+        <v>226.3018262620105</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.0414128993762</v>
+        <v>204.7038975802373</v>
       </c>
       <c r="AD4" t="n">
-        <v>143853.1544405493</v>
+        <v>165395.7970432143</v>
       </c>
       <c r="AE4" t="n">
-        <v>196826.2322587428</v>
+        <v>226301.8262620105</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169813255983836e-06</v>
+        <v>8.586827461493534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.078776041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178041.4128993762</v>
+        <v>204703.8975802373</v>
       </c>
     </row>
     <row r="5">
@@ -46362,28 +46362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.2115736396871</v>
+        <v>146.8394675883727</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.3199989985137</v>
+        <v>200.9122376544305</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.9694587432719</v>
+        <v>181.7374556748453</v>
       </c>
       <c r="AD5" t="n">
-        <v>125211.5736396871</v>
+        <v>146839.4675883726</v>
       </c>
       <c r="AE5" t="n">
-        <v>171319.9989985137</v>
+        <v>200912.2376544305</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310381676187813e-06</v>
+        <v>8.876297683953528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.946940104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>154969.4587432719</v>
+        <v>181737.4556748453</v>
       </c>
     </row>
     <row r="6">
@@ -46468,28 +46468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.0519169880702</v>
+        <v>141.6798109367557</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.2603291397887</v>
+        <v>193.8525677957055</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.5835538675526</v>
+        <v>175.3515507991259</v>
       </c>
       <c r="AD6" t="n">
-        <v>120051.9169880702</v>
+        <v>141679.8109367557</v>
       </c>
       <c r="AE6" t="n">
-        <v>164260.3291397887</v>
+        <v>193852.5677957055</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.389497136481055e-06</v>
+        <v>9.039218842616884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.875325520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>148583.5538675525</v>
+        <v>175351.5507991259</v>
       </c>
     </row>
     <row r="7">
@@ -46574,28 +46574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.1760204683838</v>
+        <v>138.8039144170693</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.3254006459557</v>
+        <v>189.9176393018726</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.0241694264629</v>
+        <v>171.7921663580363</v>
       </c>
       <c r="AD7" t="n">
-        <v>117176.0204683838</v>
+        <v>138803.9144170693</v>
       </c>
       <c r="AE7" t="n">
-        <v>160325.4006459557</v>
+        <v>189917.6393018726</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.430047729075214e-06</v>
+        <v>9.122724007162965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.839518229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>145024.1694264629</v>
+        <v>171792.1663580363</v>
       </c>
     </row>
     <row r="8">
@@ -46680,28 +46680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.4257553813417</v>
+        <v>139.0536493300273</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.6670989713913</v>
+        <v>190.2593376273082</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.3332565432957</v>
+        <v>172.101253474869</v>
       </c>
       <c r="AD8" t="n">
-        <v>117425.7553813417</v>
+        <v>139053.6493300273</v>
       </c>
       <c r="AE8" t="n">
-        <v>160667.0989713913</v>
+        <v>190259.3376273082</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430674800094711e-06</v>
+        <v>9.124015324140482e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.839518229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>145333.2565432957</v>
+        <v>172101.253474869</v>
       </c>
     </row>
   </sheetData>
@@ -46977,28 +46977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.3472845893927</v>
+        <v>320.2218321953437</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.7423022400792</v>
+        <v>438.1416379998597</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.7865456754274</v>
+        <v>396.3260150048033</v>
       </c>
       <c r="AD2" t="n">
-        <v>275347.2845893927</v>
+        <v>320221.8321953437</v>
       </c>
       <c r="AE2" t="n">
-        <v>376742.3022400792</v>
+        <v>438141.6379998596</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.742164291110438e-06</v>
+        <v>5.432732325446219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9716796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>340786.5456754274</v>
+        <v>396326.0150048033</v>
       </c>
     </row>
     <row r="3">
@@ -47083,28 +47083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.6738322376104</v>
+        <v>208.2817877497288</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.0471286187441</v>
+        <v>284.9803307430138</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.8012272208295</v>
+        <v>257.7822079493906</v>
       </c>
       <c r="AD3" t="n">
-        <v>185673.8322376104</v>
+        <v>208281.7877497288</v>
       </c>
       <c r="AE3" t="n">
-        <v>254047.1286187441</v>
+        <v>284980.3307430138</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.575620434632666e-06</v>
+        <v>7.083962394860246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.580078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>229801.2272208295</v>
+        <v>257782.2079493906</v>
       </c>
     </row>
     <row r="4">
@@ -47189,28 +47189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.1689603706673</v>
+        <v>190.6063236821935</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.0961906699611</v>
+        <v>260.7959810193839</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.1361331745183</v>
+        <v>235.9059786204284</v>
       </c>
       <c r="AD4" t="n">
-        <v>168168.9603706673</v>
+        <v>190606.3236821935</v>
       </c>
       <c r="AE4" t="n">
-        <v>230096.1906699612</v>
+        <v>260795.9810193839</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.860683968931649e-06</v>
+        <v>7.64872573986205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.241536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>208136.1331745183</v>
+        <v>235905.9786204284</v>
       </c>
     </row>
     <row r="5">
@@ -47295,28 +47295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>159.0298570435828</v>
+        <v>181.467220355109</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.5916663090673</v>
+        <v>248.2914566584901</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.8250230684139</v>
+        <v>224.594868514324</v>
       </c>
       <c r="AD5" t="n">
-        <v>159029.8570435828</v>
+        <v>181467.220355109</v>
       </c>
       <c r="AE5" t="n">
-        <v>217591.6663090673</v>
+        <v>248291.4566584901</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.021176851814415e-06</v>
+        <v>7.966691689483608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.072265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>196825.023068414</v>
+        <v>224594.868514324</v>
       </c>
     </row>
     <row r="6">
@@ -47401,28 +47401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.81924798847</v>
+        <v>175.4324882656469</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.0433517213894</v>
+        <v>240.0344699801022</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.5241265747095</v>
+        <v>217.1259170557653</v>
       </c>
       <c r="AD6" t="n">
-        <v>141819.24798847</v>
+        <v>175432.4882656469</v>
       </c>
       <c r="AE6" t="n">
-        <v>194043.3517213894</v>
+        <v>240034.4699801022</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.114755774122234e-06</v>
+        <v>8.15208876355762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.9794921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>175524.1265747095</v>
+        <v>217125.9170557653</v>
       </c>
     </row>
     <row r="7">
@@ -47507,28 +47507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.2191032745843</v>
+        <v>160.7417179321311</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.1174748966781</v>
+        <v>219.9339098987502</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.0683685206355</v>
+        <v>198.9437262172578</v>
       </c>
       <c r="AD7" t="n">
-        <v>138219.1032745843</v>
+        <v>160741.7179321311</v>
       </c>
       <c r="AE7" t="n">
-        <v>189117.4748966781</v>
+        <v>219933.9098987502</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.170299392524296e-06</v>
+        <v>8.262130897846712e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.927408854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>171068.3685206355</v>
+        <v>198943.7262172578</v>
       </c>
     </row>
     <row r="8">
@@ -47613,28 +47613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.4875118283514</v>
+        <v>157.0101264858982</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.011746853749</v>
+        <v>214.828181855821</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.4499239961876</v>
+        <v>194.3252816928099</v>
       </c>
       <c r="AD8" t="n">
-        <v>134487.5118283514</v>
+        <v>157010.1264858982</v>
       </c>
       <c r="AE8" t="n">
-        <v>184011.746853749</v>
+        <v>214828.181855821</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.211957106325841e-06</v>
+        <v>8.344662498563529e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.888346354166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>166449.9239961876</v>
+        <v>194325.2816928099</v>
       </c>
     </row>
     <row r="9">
@@ -47719,28 +47719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.6486097704897</v>
+        <v>154.1712244280365</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.127435814665</v>
+        <v>210.9438708167371</v>
       </c>
       <c r="AC9" t="n">
-        <v>162.9363261510078</v>
+        <v>190.8116838476301</v>
       </c>
       <c r="AD9" t="n">
-        <v>131648.6097704897</v>
+        <v>154171.2244280365</v>
       </c>
       <c r="AE9" t="n">
-        <v>180127.435814665</v>
+        <v>210943.8708167371</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.244055682902395e-06</v>
+        <v>8.408255688487842e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.859049479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>162936.3261510078</v>
+        <v>190811.6838476301</v>
       </c>
     </row>
     <row r="10">
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.8067479872891</v>
+        <v>151.3293626448359</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.2390751487985</v>
+        <v>207.0555101508705</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.4190651697419</v>
+        <v>187.2944228663642</v>
       </c>
       <c r="AD10" t="n">
-        <v>128806.7479872891</v>
+        <v>151329.3626448359</v>
       </c>
       <c r="AE10" t="n">
-        <v>176239.0751487985</v>
+        <v>207055.5101508705</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.266293254762639e-06</v>
+        <v>8.452312412541988e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.839518229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>159419.0651697419</v>
+        <v>187294.4228663642</v>
       </c>
     </row>
     <row r="11">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>128.4961255017549</v>
+        <v>151.0187401593017</v>
       </c>
       <c r="AB11" t="n">
-        <v>175.8140677603939</v>
+        <v>206.6305027624659</v>
       </c>
       <c r="AC11" t="n">
-        <v>159.0346198899848</v>
+        <v>186.9099775866071</v>
       </c>
       <c r="AD11" t="n">
-        <v>128496.1255017549</v>
+        <v>151018.7401593017</v>
       </c>
       <c r="AE11" t="n">
-        <v>175814.0677603939</v>
+        <v>206630.5027624659</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278066086923946e-06</v>
+        <v>8.475636560570654e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>159034.6198899848</v>
+        <v>186909.9775866071</v>
       </c>
     </row>
     <row r="12">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.182426359114</v>
+        <v>151.7050410166608</v>
       </c>
       <c r="AB12" t="n">
-        <v>176.7530948708892</v>
+        <v>207.5695298729612</v>
       </c>
       <c r="AC12" t="n">
-        <v>159.8840275709876</v>
+        <v>187.7593852676098</v>
       </c>
       <c r="AD12" t="n">
-        <v>129182.426359114</v>
+        <v>151705.0410166608</v>
       </c>
       <c r="AE12" t="n">
-        <v>176753.0948708892</v>
+        <v>207569.5298729612</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.276657371964474e-06</v>
+        <v>8.472845636874918e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.829752604166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>159884.0275709876</v>
+        <v>187759.3852676098</v>
       </c>
     </row>
   </sheetData>
